--- a/nodes_source_analyses/energy/energy/energy_flexibility_mv_batteries_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_flexibility_mv_batteries_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2F6055-0DBD-FA40-8BD8-5EC7BFC1F26A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03DB05D-94D3-C342-84D0-86B5B9FC01D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2080" yWindow="1060" windowWidth="28140" windowHeight="16020" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -46,7 +46,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
   <si>
     <t>Source</t>
   </si>
@@ -258,21 +261,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>hours_prep_nl</t>
-  </si>
-  <si>
-    <t>hours_prod_nl</t>
-  </si>
-  <si>
-    <t>hours_place_nl</t>
-  </si>
-  <si>
-    <t>hours_maint_nl</t>
-  </si>
-  <si>
-    <t>hours_remov_nl</t>
   </si>
   <si>
     <t>full_load_hours</t>
@@ -383,6 +371,30 @@
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
+  <si>
+    <t>Aurecon</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Large-Scale Battery Storage Knowledge Sharing Report</t>
+  </si>
+  <si>
+    <t>https://arena.gov.au/assets/2019/11/large-scale-battery-storage-knowledge-sharing-report.pdf</t>
+  </si>
+  <si>
+    <t>HPR: Hornsdale Power Reserve</t>
+  </si>
+  <si>
+    <t>https://refman.energytransitionmodel.com/publications/2137</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>This is considered to be the roundtrip efficiency.</t>
+  </si>
 </sst>
 </file>
 
@@ -393,19 +405,12 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -524,6 +529,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,6 +537,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,6 +545,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,6 +553,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -552,17 +561,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,6 +588,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -898,519 +911,517 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="274">
+  <cellStyleXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1424,9 +1435,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1435,55 +1446,64 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="274" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="274">
+  <cellStyles count="275">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1757,6 +1777,7 @@
     <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="274" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1770,6 +1791,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2895600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112948</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA2EADA5-0376-9240-BF8D-EDC058E0C3BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5092700" y="1155700"/>
+          <a:ext cx="5829300" cy="2221148"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2870200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>75859</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE8AFAE5-CB29-084C-B5DE-9A08BAA0E651}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="3568700"/>
+          <a:ext cx="5791200" cy="787059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2245,8 +2359,8 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="140" t="s">
-        <v>89</v>
+      <c r="C4" s="139" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2255,7 +2369,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2412,10 +2526,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K43"/>
+  <dimension ref="B1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" customHeight="1"/>
@@ -2440,28 +2554,28 @@
       <c r="G1" s="79"/>
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="153" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="155"/>
+      <c r="B2" s="152" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="154"/>
       <c r="F2" s="79"/>
       <c r="G2" s="79"/>
     </row>
     <row r="3" spans="2:11" ht="16" customHeight="1">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157"/>
-      <c r="D3" s="157"/>
-      <c r="E3" s="158"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
       <c r="F3" s="79"/>
       <c r="G3" s="79"/>
     </row>
     <row r="4" spans="2:11" ht="32" customHeight="1">
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="161"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
       <c r="F4" s="79"/>
       <c r="G4" s="79"/>
     </row>
@@ -2527,41 +2641,41 @@
     <row r="10" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B10" s="88"/>
       <c r="C10" s="101" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="131">
+        <v>78</v>
+      </c>
+      <c r="E10" s="130">
         <f>'Research data'!G6</f>
         <v>129</v>
       </c>
       <c r="F10" s="103"/>
       <c r="G10" s="104"/>
-      <c r="I10" s="138"/>
+      <c r="I10" s="137"/>
       <c r="J10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B11" s="88"/>
       <c r="C11" s="101" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D11" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="131">
+      <c r="E11" s="130">
         <f>'Research data'!G7</f>
         <v>0</v>
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="104"/>
-      <c r="I11" s="138"/>
+      <c r="I11" s="137"/>
       <c r="J11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="88"/>
-      <c r="C12" s="134" t="s">
-        <v>87</v>
+      <c r="C12" s="133" t="s">
+        <v>82</v>
       </c>
       <c r="D12" s="105" t="s">
         <v>4</v>
@@ -2571,8 +2685,10 @@
         <v>0.85</v>
       </c>
       <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="I12" s="138"/>
+      <c r="G12" s="165" t="s">
+        <v>106</v>
+      </c>
+      <c r="I12" s="137"/>
       <c r="J12" s="91"/>
     </row>
     <row r="13" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
@@ -2583,54 +2699,56 @@
       <c r="D13" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="131">
+      <c r="E13" s="130">
         <f>'Research data'!G10</f>
         <v>100</v>
       </c>
       <c r="F13" s="103"/>
       <c r="G13" s="104"/>
-      <c r="I13" s="138"/>
+      <c r="I13" s="137"/>
       <c r="J13" s="91"/>
     </row>
-    <row r="14" spans="2:11" ht="16" customHeight="1" thickBot="1">
-      <c r="B14" s="92"/>
-      <c r="C14" s="103" t="s">
-        <v>23</v>
+    <row r="14" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B14" s="88"/>
+      <c r="C14" s="165" t="s">
+        <v>105</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="102">
-        <f>'Research data'!G8</f>
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="E14" s="130">
+        <f>'Research data'!G9</f>
+        <v>80</v>
       </c>
       <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="79"/>
+      <c r="G14" s="104"/>
+      <c r="I14" s="166" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B15" s="92"/>
       <c r="C15" s="103" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="106">
-        <v>0</v>
+      <c r="E15" s="102">
+        <f>'Research data'!G8</f>
+        <v>1</v>
       </c>
       <c r="F15" s="103"/>
       <c r="G15" s="103"/>
-      <c r="I15" s="138"/>
+      <c r="I15" s="137"/>
       <c r="J15" s="93"/>
       <c r="K15" s="79"/>
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B16" s="92"/>
-      <c r="C16" s="107" t="s">
-        <v>72</v>
+      <c r="C16" s="103" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="105" t="s">
         <v>4</v>
@@ -2640,14 +2758,14 @@
       </c>
       <c r="F16" s="103"/>
       <c r="G16" s="103"/>
-      <c r="I16" s="138"/>
+      <c r="I16" s="137"/>
       <c r="J16" s="93"/>
       <c r="K16" s="79"/>
     </row>
     <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B17" s="92"/>
-      <c r="C17" s="103" t="s">
-        <v>7</v>
+      <c r="C17" s="107" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="105" t="s">
         <v>4</v>
@@ -2657,14 +2775,14 @@
       </c>
       <c r="F17" s="103"/>
       <c r="G17" s="103"/>
-      <c r="I17" s="138"/>
+      <c r="I17" s="137"/>
       <c r="J17" s="93"/>
       <c r="K17" s="79"/>
     </row>
     <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B18" s="92"/>
       <c r="C18" s="103" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D18" s="105" t="s">
         <v>4</v>
@@ -2674,14 +2792,14 @@
       </c>
       <c r="F18" s="103"/>
       <c r="G18" s="103"/>
-      <c r="I18" s="138"/>
+      <c r="I18" s="137"/>
       <c r="J18" s="93"/>
       <c r="K18" s="79"/>
     </row>
     <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="92"/>
       <c r="C19" s="103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="105" t="s">
         <v>4</v>
@@ -2691,41 +2809,46 @@
       </c>
       <c r="F19" s="103"/>
       <c r="G19" s="103"/>
-      <c r="I19" s="138"/>
+      <c r="I19" s="137"/>
       <c r="J19" s="93"/>
       <c r="K19" s="79"/>
     </row>
     <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B20" s="92"/>
       <c r="C20" s="103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E20" s="106">
         <v>0</v>
       </c>
       <c r="F20" s="103"/>
       <c r="G20" s="103"/>
-      <c r="I20" s="138"/>
+      <c r="I20" s="137"/>
       <c r="J20" s="93"/>
-    </row>
-    <row r="21" spans="2:11" ht="16" customHeight="1">
+      <c r="K20" s="79"/>
+    </row>
+    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B21" s="92"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="C21" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="106">
+        <v>0</v>
+      </c>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="I21" s="137"/>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="22" spans="2:11" ht="16" customHeight="1">
       <c r="B22" s="92"/>
-      <c r="C22" s="89" t="s">
-        <v>61</v>
-      </c>
+      <c r="C22" s="94"/>
       <c r="D22" s="95"/>
       <c r="E22" s="96"/>
       <c r="F22" s="79"/>
@@ -2735,41 +2858,37 @@
     </row>
     <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B23" s="92"/>
-      <c r="C23" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="106">
-        <f>'Research data'!G14</f>
-        <v>56000000</v>
-      </c>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="I23" s="138"/>
+      <c r="C23" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="93"/>
     </row>
     <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B24" s="92"/>
       <c r="C24" s="103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="105" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="106">
-        <v>0</v>
+        <f>'Research data'!G14</f>
+        <v>56000000</v>
       </c>
       <c r="F24" s="103"/>
       <c r="G24" s="103"/>
-      <c r="I24" s="138"/>
+      <c r="I24" s="137"/>
       <c r="J24" s="93"/>
     </row>
     <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B25" s="92"/>
       <c r="C25" s="103" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D25" s="105" t="s">
         <v>22</v>
@@ -2779,13 +2898,13 @@
       </c>
       <c r="F25" s="103"/>
       <c r="G25" s="103"/>
-      <c r="I25" s="138"/>
+      <c r="I25" s="137"/>
       <c r="J25" s="93"/>
     </row>
     <row r="26" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B26" s="92"/>
       <c r="C26" s="103" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D26" s="105" t="s">
         <v>22</v>
@@ -2795,107 +2914,111 @@
       </c>
       <c r="F26" s="103"/>
       <c r="G26" s="103"/>
-      <c r="I26" s="138"/>
+      <c r="I26" s="137"/>
       <c r="J26" s="93"/>
     </row>
     <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B27" s="92"/>
       <c r="C27" s="103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="108">
-        <f>'Research data'!G15</f>
-        <v>560000</v>
+        <v>22</v>
+      </c>
+      <c r="E27" s="106">
+        <v>0</v>
       </c>
       <c r="F27" s="103"/>
       <c r="G27" s="103"/>
-      <c r="I27" s="138"/>
+      <c r="I27" s="137"/>
       <c r="J27" s="93"/>
     </row>
     <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B28" s="92"/>
       <c r="C28" s="103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="102">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="E28" s="108">
+        <f>'Research data'!G15</f>
+        <v>560000</v>
       </c>
       <c r="F28" s="103"/>
       <c r="G28" s="103"/>
-      <c r="I28" s="138"/>
+      <c r="I28" s="137"/>
       <c r="J28" s="93"/>
     </row>
     <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B29" s="92"/>
       <c r="C29" s="103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="109">
+      <c r="E29" s="102">
         <v>0</v>
       </c>
       <c r="F29" s="103"/>
       <c r="G29" s="103"/>
-      <c r="I29" s="138"/>
+      <c r="I29" s="137"/>
       <c r="J29" s="93"/>
     </row>
     <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B30" s="92"/>
       <c r="C30" s="103" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D30" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="102">
-        <v>0.04</v>
+        <v>41</v>
+      </c>
+      <c r="E30" s="109">
+        <v>0</v>
       </c>
       <c r="F30" s="103"/>
       <c r="G30" s="103"/>
-      <c r="I30" s="162" t="s">
-        <v>103</v>
-      </c>
+      <c r="I30" s="137"/>
       <c r="J30" s="93"/>
     </row>
     <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B31" s="92"/>
       <c r="C31" s="103" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D31" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="106">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E31" s="102">
+        <v>0.04</v>
       </c>
       <c r="F31" s="103"/>
       <c r="G31" s="103"/>
-      <c r="I31" s="138"/>
+      <c r="I31" s="151" t="s">
+        <v>98</v>
+      </c>
       <c r="J31" s="93"/>
     </row>
-    <row r="32" spans="2:11" ht="16" customHeight="1">
+    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B32" s="92"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="I32" s="79"/>
+      <c r="C32" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="106">
+        <v>0</v>
+      </c>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="I32" s="137"/>
       <c r="J32" s="93"/>
     </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="33" spans="2:10" ht="16" customHeight="1">
       <c r="B33" s="92"/>
-      <c r="C33" s="89" t="s">
-        <v>6</v>
-      </c>
+      <c r="C33" s="79"/>
       <c r="D33" s="95"/>
       <c r="E33" s="97"/>
       <c r="F33" s="79"/>
@@ -2905,150 +3028,92 @@
     </row>
     <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B34" s="92"/>
-      <c r="C34" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="106">
-        <v>0</v>
-      </c>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="I34" s="138"/>
+      <c r="C34" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="95"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="I34" s="79"/>
       <c r="J34" s="93"/>
     </row>
     <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B35" s="92"/>
       <c r="C35" s="103" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D35" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="108">
-        <f>'Research data'!G18</f>
-        <v>0.125</v>
+        <v>3</v>
+      </c>
+      <c r="E35" s="106">
+        <v>0</v>
       </c>
       <c r="F35" s="103"/>
       <c r="G35" s="103"/>
-      <c r="I35" s="138"/>
+      <c r="I35" s="137"/>
       <c r="J35" s="93"/>
     </row>
     <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B36" s="92"/>
       <c r="C36" s="103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="106">
-        <f>'Research data'!G19</f>
-        <v>10</v>
+      <c r="E36" s="108">
+        <f>'Research data'!G18</f>
+        <v>0.125</v>
       </c>
       <c r="F36" s="103"/>
       <c r="G36" s="103"/>
-      <c r="I36" s="138"/>
+      <c r="I36" s="137"/>
       <c r="J36" s="93"/>
     </row>
     <row r="37" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B37" s="92"/>
       <c r="C37" s="103" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D37" s="105" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" s="106">
-        <v>0</v>
+        <f>'Research data'!G19</f>
+        <v>10</v>
       </c>
       <c r="F37" s="103"/>
       <c r="G37" s="103"/>
-      <c r="I37" s="138"/>
+      <c r="I37" s="137"/>
       <c r="J37" s="93"/>
     </row>
     <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B38" s="92"/>
-      <c r="C38" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="108">
+      <c r="C38" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="106">
         <v>0</v>
       </c>
       <c r="F38" s="103"/>
       <c r="G38" s="103"/>
-      <c r="I38" s="138"/>
+      <c r="I38" s="137"/>
       <c r="J38" s="93"/>
     </row>
     <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B39" s="92"/>
-      <c r="C39" s="110" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="105"/>
-      <c r="E39" s="108">
-        <v>0</v>
-      </c>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="93"/>
-    </row>
-    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B40" s="92"/>
-      <c r="C40" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="105"/>
-      <c r="E40" s="108">
-        <v>0</v>
-      </c>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="93"/>
-    </row>
-    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B41" s="92"/>
-      <c r="C41" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="105"/>
-      <c r="E41" s="108">
-        <v>0</v>
-      </c>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="93"/>
-    </row>
-    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B42" s="92"/>
-      <c r="C42" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="105"/>
-      <c r="E42" s="108">
-        <v>0</v>
-      </c>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="93"/>
-    </row>
-    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B43" s="98"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="100"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3067,7 +3132,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -3146,131 +3211,131 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="142"/>
+      <c r="K5" s="141"/>
       <c r="L5" s="73"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1">
       <c r="B6" s="41"/>
-      <c r="C6" s="129" t="s">
-        <v>80</v>
+      <c r="C6" s="128" t="s">
+        <v>75</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
-      <c r="F6" s="130" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="147">
+      <c r="F6" s="129" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="145">
         <v>129</v>
       </c>
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="142" t="s">
-        <v>95</v>
+      <c r="K6" s="141" t="s">
+        <v>90</v>
       </c>
       <c r="L6" s="73"/>
     </row>
     <row r="7" spans="2:12" ht="17" thickBot="1">
       <c r="B7" s="41"/>
-      <c r="C7" s="129" t="s">
-        <v>82</v>
+      <c r="C7" s="128" t="s">
+        <v>77</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="147">
+      <c r="G7" s="145">
         <v>0</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
       <c r="J7" s="43"/>
-      <c r="K7" s="142" t="s">
-        <v>100</v>
+      <c r="K7" s="141" t="s">
+        <v>95</v>
       </c>
       <c r="L7" s="73"/>
     </row>
     <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="41"/>
-      <c r="C8" s="143" t="s">
-        <v>93</v>
+      <c r="C8" s="142" t="s">
+        <v>88</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="147">
+      <c r="F8" s="129"/>
+      <c r="G8" s="145">
         <v>1</v>
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
       <c r="J8" s="43"/>
-      <c r="K8" s="142" t="s">
-        <v>100</v>
+      <c r="K8" s="141" t="s">
+        <v>95</v>
       </c>
       <c r="L8" s="73"/>
     </row>
     <row r="9" spans="2:12" ht="17" thickBot="1">
       <c r="B9" s="41"/>
-      <c r="C9" s="129" t="s">
-        <v>84</v>
+      <c r="C9" s="128" t="s">
+        <v>79</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="148">
-        <f>G10/G11</f>
-        <v>117.64705882352942</v>
+      <c r="G9" s="146">
+        <f>Notes!E7</f>
+        <v>80</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="43"/>
-      <c r="K9" s="142" t="s">
-        <v>95</v>
+      <c r="K9" s="141" t="s">
+        <v>99</v>
       </c>
       <c r="L9" s="73"/>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
       <c r="B10" s="41"/>
-      <c r="C10" s="129" t="s">
-        <v>81</v>
+      <c r="C10" s="128" t="s">
+        <v>76</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
-      <c r="F10" s="130" t="s">
+      <c r="F10" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="147">
+      <c r="G10" s="145">
         <v>100</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
       <c r="J10" s="43"/>
-      <c r="K10" s="142" t="s">
-        <v>95</v>
+      <c r="K10" s="141" t="s">
+        <v>90</v>
       </c>
       <c r="L10" s="73"/>
     </row>
     <row r="11" spans="2:12" ht="17" thickBot="1">
       <c r="B11" s="41"/>
-      <c r="C11" s="129" t="s">
-        <v>86</v>
+      <c r="C11" s="128" t="s">
+        <v>81</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
-      <c r="F11" s="130" t="s">
+      <c r="F11" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="146">
+      <c r="G11" s="164">
         <v>0.85</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
       <c r="J11" s="43"/>
-      <c r="K11" s="142" t="s">
-        <v>100</v>
+      <c r="K11" s="141" t="s">
+        <v>95</v>
       </c>
       <c r="L11" s="73"/>
     </row>
@@ -3280,11 +3345,11 @@
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
       <c r="F12" s="48"/>
-      <c r="G12" s="149"/>
+      <c r="G12" s="147"/>
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
-      <c r="K12" s="142"/>
+      <c r="K12" s="141"/>
       <c r="L12" s="73"/>
     </row>
     <row r="13" spans="2:12" ht="17" thickBot="1">
@@ -3295,53 +3360,53 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="150"/>
+      <c r="G13" s="148"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="142"/>
+      <c r="K13" s="141"/>
       <c r="L13" s="73"/>
     </row>
     <row r="14" spans="2:12" ht="17" thickBot="1">
       <c r="B14" s="41"/>
-      <c r="C14" s="129" t="s">
-        <v>85</v>
+      <c r="C14" s="128" t="s">
+        <v>80</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
-      <c r="F14" s="130" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="151">
+      <c r="F14" s="129" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="149">
         <v>56000000</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
       <c r="J14" s="43"/>
-      <c r="K14" s="142" t="s">
-        <v>95</v>
+      <c r="K14" s="141" t="s">
+        <v>90</v>
       </c>
       <c r="L14" s="73"/>
     </row>
     <row r="15" spans="2:12" ht="17" thickBot="1">
       <c r="B15" s="41"/>
-      <c r="C15" s="143" t="s">
-        <v>90</v>
+      <c r="C15" s="142" t="s">
+        <v>85</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
-      <c r="F15" s="144" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="147">
+      <c r="F15" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="145">
         <f>G14*0.01</f>
         <v>560000</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
       <c r="J15" s="43"/>
-      <c r="K15" s="142" t="s">
-        <v>100</v>
+      <c r="K15" s="141" t="s">
+        <v>95</v>
       </c>
       <c r="L15" s="73"/>
     </row>
@@ -3351,11 +3416,11 @@
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
       <c r="F16" s="48"/>
-      <c r="G16" s="149"/>
+      <c r="G16" s="147"/>
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
       <c r="J16" s="43"/>
-      <c r="K16" s="145"/>
+      <c r="K16" s="144"/>
       <c r="L16" s="73"/>
     </row>
     <row r="17" spans="2:12" ht="17" thickBot="1">
@@ -3366,16 +3431,16 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="150"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="142"/>
+      <c r="K17" s="141"/>
       <c r="L17" s="73"/>
     </row>
     <row r="18" spans="2:12" ht="17" thickBot="1">
       <c r="B18" s="41"/>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="128" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="44" t="s">
@@ -3384,23 +3449,23 @@
       <c r="E18" s="44">
         <v>0</v>
       </c>
-      <c r="F18" s="144" t="s">
-        <v>92</v>
-      </c>
-      <c r="G18" s="152">
+      <c r="F18" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="150">
         <v>0.125</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
       <c r="J18" s="43"/>
-      <c r="K18" s="142" t="s">
-        <v>102</v>
+      <c r="K18" s="141" t="s">
+        <v>97</v>
       </c>
       <c r="L18" s="73"/>
     </row>
     <row r="19" spans="2:12" ht="17" thickBot="1">
       <c r="B19" s="41"/>
-      <c r="C19" s="143" t="s">
+      <c r="C19" s="142" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="44" t="s">
@@ -3409,17 +3474,17 @@
       <c r="E19" s="44">
         <v>5</v>
       </c>
-      <c r="F19" s="144" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="147">
+      <c r="F19" s="143" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="145">
         <v>10</v>
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="142" t="s">
-        <v>100</v>
+      <c r="K19" s="141" t="s">
+        <v>95</v>
       </c>
       <c r="L19" s="73"/>
     </row>
@@ -3447,10 +3512,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:K9"/>
+  <dimension ref="B1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
@@ -3522,71 +3587,104 @@
         <v>20</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="C7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
+      <c r="C7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="127"/>
+      <c r="K7" s="23"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="C8" s="139" t="s">
-        <v>98</v>
+      <c r="C8" s="138" t="s">
+        <v>93</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="141">
+      <c r="F8" s="138" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="140">
         <v>43101</v>
       </c>
       <c r="H8" s="22">
         <v>2018</v>
       </c>
-      <c r="I8" s="141">
+      <c r="I8" s="140">
         <v>43709</v>
       </c>
-      <c r="J8" s="23" t="s">
-        <v>94</v>
+      <c r="K8" s="161" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="141">
+        <v>91</v>
+      </c>
+      <c r="G9" s="140">
         <v>43556</v>
       </c>
       <c r="H9" s="22">
         <v>2019</v>
       </c>
-      <c r="I9" s="141">
+      <c r="I9" s="140">
         <v>43709</v>
       </c>
-      <c r="J9" s="23" t="s">
-        <v>97</v>
-      </c>
+      <c r="K9" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="C10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="140">
+        <v>43770</v>
+      </c>
+      <c r="H10" s="22">
+        <v>2019</v>
+      </c>
+      <c r="I10" s="127">
+        <v>44144</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="K11" s="23"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K8" r:id="rId1" xr:uid="{E79E91CE-5D89-2644-B654-3D3BA4653DEA}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -3600,57 +3698,57 @@
   <dimension ref="B2:K166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="111" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="111" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="111" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="111" customWidth="1"/>
-    <col min="5" max="6" width="8.42578125" style="111" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="111"/>
-    <col min="8" max="8" width="10.7109375" style="112"/>
-    <col min="9" max="9" width="10.7109375" style="111"/>
-    <col min="10" max="10" width="35" style="111" customWidth="1"/>
-    <col min="11" max="11" width="63.28515625" style="111" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="111"/>
+    <col min="1" max="1" width="3.42578125" style="110" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="110" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="110" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="110" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" style="110" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="110"/>
+    <col min="8" max="8" width="10.7109375" style="111"/>
+    <col min="9" max="9" width="10.7109375" style="110"/>
+    <col min="10" max="10" width="35" style="110" customWidth="1"/>
+    <col min="11" max="11" width="63.28515625" style="110" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="110"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17" thickBot="1"/>
     <row r="3" spans="2:11">
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="116"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="117"/>
-      <c r="C4" s="118" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="120" t="s">
-        <v>78</v>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="119" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -3660,43 +3758,53 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="121"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="72"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14"/>
-      <c r="C6" s="122"/>
+      <c r="C6" s="121"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="121"/>
+      <c r="H6" s="120"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="123"/>
+      <c r="K6" s="122"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="162" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="162">
+        <v>80</v>
+      </c>
+      <c r="F7" s="162" t="s">
+        <v>44</v>
+      </c>
       <c r="G7" s="12"/>
-      <c r="H7" s="121"/>
+      <c r="H7" s="120"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="72"/>
+      <c r="K7" s="163" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="121"/>
+      <c r="H8" s="120"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="72"/>
@@ -3704,11 +3812,11 @@
     <row r="9" spans="2:11">
       <c r="B9" s="14"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="121"/>
+      <c r="H9" s="120"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="72"/>
@@ -3720,7 +3828,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="121"/>
+      <c r="H10" s="120"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="72"/>
@@ -3728,11 +3836,11 @@
     <row r="11" spans="2:11">
       <c r="B11" s="14"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="121"/>
+      <c r="H11" s="120"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="72"/>
@@ -3740,11 +3848,11 @@
     <row r="12" spans="2:11">
       <c r="B12" s="14"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="121"/>
+      <c r="H12" s="120"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="72"/>
@@ -3752,11 +3860,11 @@
     <row r="13" spans="2:11">
       <c r="B13" s="14"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="121"/>
+      <c r="H13" s="120"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="72"/>
@@ -3764,11 +3872,11 @@
     <row r="14" spans="2:11">
       <c r="B14" s="14"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="121"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="72"/>
@@ -3776,11 +3884,11 @@
     <row r="15" spans="2:11">
       <c r="B15" s="14"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="121"/>
+      <c r="H15" s="120"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="72"/>
@@ -3788,11 +3896,11 @@
     <row r="16" spans="2:11">
       <c r="B16" s="14"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="121"/>
+      <c r="H16" s="120"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="72"/>
@@ -3800,11 +3908,11 @@
     <row r="17" spans="2:11">
       <c r="B17" s="14"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="121"/>
+      <c r="H17" s="120"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="72"/>
@@ -3812,11 +3920,11 @@
     <row r="18" spans="2:11">
       <c r="B18" s="14"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="121"/>
+      <c r="H18" s="120"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="72"/>
@@ -3824,11 +3932,11 @@
     <row r="19" spans="2:11">
       <c r="B19" s="14"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="121"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="72"/>
@@ -3840,7 +3948,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="121"/>
+      <c r="H20" s="120"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="72"/>
@@ -3852,22 +3960,22 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="121"/>
+      <c r="H21" s="120"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="72"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="124"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="121"/>
+      <c r="H22" s="120"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="123"/>
+      <c r="K22" s="122"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="14"/>
@@ -3875,11 +3983,13 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="121"/>
+      <c r="G23" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="H23" s="120"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="137"/>
+      <c r="K23" s="136"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="14"/>
@@ -3888,7 +3998,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="121"/>
+      <c r="H24" s="120"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="72"/>
@@ -3900,7 +4010,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="121"/>
+      <c r="H25" s="120"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="72"/>
@@ -3912,7 +4022,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="121"/>
+      <c r="H26" s="120"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="72"/>
@@ -3924,7 +4034,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="121"/>
+      <c r="H27" s="120"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="72"/>
@@ -3936,7 +4046,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="121"/>
+      <c r="H28" s="120"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="72"/>
@@ -3948,7 +4058,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="121"/>
+      <c r="H29" s="120"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="72"/>
@@ -3960,7 +4070,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="121"/>
+      <c r="H30" s="120"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="72"/>
@@ -3972,7 +4082,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="121"/>
+      <c r="H31" s="120"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="72"/>
@@ -3980,11 +4090,11 @@
     <row r="32" spans="2:11">
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="121"/>
+      <c r="H32" s="120"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="72"/>
@@ -3996,7 +4106,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="121"/>
+      <c r="H33" s="120"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="72"/>
@@ -4008,7 +4118,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="121"/>
+      <c r="H34" s="120"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="72"/>
@@ -4020,7 +4130,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="121"/>
+      <c r="H35" s="120"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="72"/>
@@ -4032,7 +4142,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="121"/>
+      <c r="H36" s="120"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="72"/>
@@ -4044,7 +4154,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="121"/>
+      <c r="H37" s="120"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="72"/>
@@ -4053,10 +4163,10 @@
       <c r="B38" s="14"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="122"/>
+      <c r="E38" s="121"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="121"/>
+      <c r="H38" s="120"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="72"/>
@@ -4067,7 +4177,7 @@
       <c r="D39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="121"/>
+      <c r="H39" s="120"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="72"/>
@@ -4076,10 +4186,10 @@
       <c r="B40" s="14"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="121"/>
+      <c r="H40" s="120"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="72"/>
@@ -4091,7 +4201,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="121"/>
+      <c r="H41" s="120"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="72"/>
@@ -4103,7 +4213,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="121"/>
+      <c r="H42" s="120"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="72"/>
@@ -4115,7 +4225,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="121"/>
+      <c r="H43" s="120"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="72"/>
@@ -4127,7 +4237,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="121"/>
+      <c r="H44" s="120"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="72"/>
@@ -4139,7 +4249,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="121"/>
+      <c r="H45" s="120"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="72"/>
@@ -4151,7 +4261,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="121"/>
+      <c r="H46" s="120"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="72"/>
@@ -4163,7 +4273,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="121"/>
+      <c r="H47" s="120"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="72"/>
@@ -4175,7 +4285,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="121"/>
+      <c r="H48" s="120"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="72"/>
@@ -4183,11 +4293,11 @@
     <row r="49" spans="2:11">
       <c r="B49" s="14"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="122"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="121"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="121"/>
+      <c r="H49" s="120"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="72"/>
@@ -4199,1371 +4309,1372 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="121"/>
+      <c r="H50" s="120"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="72"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="124"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="123"/>
+      <c r="B51" s="123"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="122"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="124"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="123"/>
+      <c r="B52" s="123"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="122"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="124"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="123"/>
+      <c r="B53" s="123"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="121"/>
+      <c r="K53" s="122"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="124"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="122"/>
-      <c r="J54" s="122"/>
-      <c r="K54" s="123"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="121"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="121"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="121"/>
+      <c r="K54" s="122"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="124"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="123"/>
+      <c r="B55" s="123"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="121"/>
+      <c r="K55" s="122"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="124"/>
-      <c r="C56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="123"/>
+      <c r="B56" s="123"/>
+      <c r="C56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="122"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="124"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="123"/>
+      <c r="B57" s="123"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="121"/>
+      <c r="K57" s="122"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="124"/>
-      <c r="C58" s="122"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="123"/>
+      <c r="B58" s="123"/>
+      <c r="C58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="122"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="124"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="122"/>
-      <c r="J59" s="122"/>
-      <c r="K59" s="123"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="121"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="121"/>
+      <c r="H59" s="124"/>
+      <c r="I59" s="121"/>
+      <c r="J59" s="121"/>
+      <c r="K59" s="122"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="124"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="122"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="122"/>
-      <c r="J60" s="122"/>
-      <c r="K60" s="123"/>
+      <c r="B60" s="123"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="121"/>
+      <c r="K60" s="122"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="124"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="123"/>
+      <c r="B61" s="123"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="121"/>
+      <c r="J61" s="121"/>
+      <c r="K61" s="122"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="124"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="122"/>
-      <c r="J62" s="122"/>
+      <c r="B62" s="123"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="121"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="121"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="121"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="124"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="122"/>
-      <c r="E63" s="122"/>
-      <c r="F63" s="122"/>
-      <c r="G63" s="122"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="122"/>
-      <c r="J63" s="122"/>
-      <c r="K63" s="123"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="121"/>
+      <c r="E63" s="121"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="121"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="121"/>
+      <c r="J63" s="121"/>
+      <c r="K63" s="122"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="124"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="122"/>
-      <c r="G64" s="122"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="122"/>
-      <c r="J64" s="122"/>
-      <c r="K64" s="123"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
+      <c r="E64" s="121"/>
+      <c r="F64" s="121"/>
+      <c r="G64" s="121"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="121"/>
+      <c r="J64" s="121"/>
+      <c r="K64" s="122"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="124"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="122"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="122"/>
-      <c r="K65" s="123"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="121"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="121"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="121"/>
+      <c r="J65" s="121"/>
+      <c r="K65" s="122"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="124"/>
-      <c r="C66" s="122"/>
-      <c r="D66" s="136"/>
-      <c r="E66" s="122"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="122"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="122"/>
-      <c r="J66" s="122"/>
-      <c r="K66" s="123"/>
+      <c r="B66" s="123"/>
+      <c r="C66" s="121"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="121"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="121"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="121"/>
+      <c r="J66" s="121"/>
+      <c r="K66" s="122"/>
     </row>
     <row r="67" spans="2:11">
-      <c r="B67" s="124"/>
-      <c r="C67" s="122"/>
-      <c r="D67" s="136"/>
-      <c r="E67" s="122"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="122"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="122"/>
-      <c r="K67" s="123"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="121"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="121"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="121"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="121"/>
+      <c r="J67" s="121"/>
+      <c r="K67" s="122"/>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="124"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="136"/>
-      <c r="E68" s="122"/>
-      <c r="F68" s="136"/>
-      <c r="G68" s="122"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="122"/>
-      <c r="K68" s="123"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="121"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="121"/>
+      <c r="F68" s="135"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="121"/>
+      <c r="K68" s="122"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="124"/>
-      <c r="C69" s="122"/>
-      <c r="G69" s="122"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="122"/>
-      <c r="J69" s="122"/>
-      <c r="K69" s="123"/>
+      <c r="B69" s="123"/>
+      <c r="C69" s="121"/>
+      <c r="G69" s="121"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="121"/>
+      <c r="J69" s="121"/>
+      <c r="K69" s="122"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="124"/>
-      <c r="C70" s="122"/>
-      <c r="G70" s="122"/>
-      <c r="H70" s="125"/>
-      <c r="I70" s="122"/>
-      <c r="J70" s="122"/>
-      <c r="K70" s="123"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="121"/>
+      <c r="G70" s="121"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="121"/>
+      <c r="J70" s="121"/>
+      <c r="K70" s="122"/>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="124"/>
-      <c r="C71" s="122"/>
-      <c r="G71" s="122"/>
-      <c r="H71" s="125"/>
-      <c r="I71" s="122"/>
-      <c r="J71" s="122"/>
-      <c r="K71" s="123"/>
+      <c r="B71" s="123"/>
+      <c r="C71" s="121"/>
+      <c r="G71" s="121"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="121"/>
+      <c r="J71" s="121"/>
+      <c r="K71" s="122"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="124"/>
-      <c r="C72" s="122"/>
-      <c r="G72" s="122"/>
-      <c r="H72" s="125"/>
-      <c r="I72" s="122"/>
-      <c r="J72" s="122"/>
-      <c r="K72" s="123"/>
+      <c r="B72" s="123"/>
+      <c r="C72" s="121"/>
+      <c r="G72" s="121"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="121"/>
+      <c r="J72" s="121"/>
+      <c r="K72" s="122"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="124"/>
-      <c r="C73" s="122"/>
-      <c r="G73" s="122"/>
-      <c r="H73" s="125"/>
-      <c r="I73" s="122"/>
-      <c r="J73" s="122"/>
-      <c r="K73" s="133"/>
+      <c r="B73" s="123"/>
+      <c r="C73" s="121"/>
+      <c r="G73" s="121"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="121"/>
+      <c r="J73" s="121"/>
+      <c r="K73" s="132"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="124"/>
-      <c r="C74" s="122"/>
-      <c r="D74" s="122"/>
-      <c r="E74" s="122"/>
-      <c r="F74" s="122"/>
-      <c r="G74" s="122"/>
-      <c r="H74" s="125"/>
-      <c r="I74" s="122"/>
-      <c r="J74" s="122"/>
-      <c r="K74" s="123"/>
+      <c r="B74" s="123"/>
+      <c r="C74" s="121"/>
+      <c r="D74" s="121"/>
+      <c r="E74" s="121"/>
+      <c r="F74" s="121"/>
+      <c r="G74" s="121"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="121"/>
+      <c r="J74" s="121"/>
+      <c r="K74" s="122"/>
     </row>
     <row r="75" spans="2:11">
-      <c r="B75" s="124"/>
-      <c r="C75" s="122"/>
-      <c r="D75" s="122"/>
-      <c r="E75" s="122"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="122"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="122"/>
-      <c r="J75" s="122"/>
-      <c r="K75" s="123"/>
+      <c r="B75" s="123"/>
+      <c r="C75" s="121"/>
+      <c r="D75" s="121"/>
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="121"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="121"/>
+      <c r="K75" s="122"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="124"/>
-      <c r="C76" s="122"/>
-      <c r="D76" s="122"/>
-      <c r="E76" s="122"/>
-      <c r="F76" s="122"/>
-      <c r="G76" s="122"/>
-      <c r="H76" s="125"/>
-      <c r="I76" s="122"/>
-      <c r="J76" s="122"/>
-      <c r="K76" s="123"/>
+      <c r="B76" s="123"/>
+      <c r="C76" s="121"/>
+      <c r="D76" s="121"/>
+      <c r="E76" s="121"/>
+      <c r="F76" s="121"/>
+      <c r="G76" s="121"/>
+      <c r="H76" s="124"/>
+      <c r="I76" s="121"/>
+      <c r="J76" s="121"/>
+      <c r="K76" s="122"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="124"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
-      <c r="E77" s="122"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="122"/>
-      <c r="H77" s="125"/>
-      <c r="I77" s="122"/>
-      <c r="J77" s="122"/>
-      <c r="K77" s="123"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
+      <c r="E77" s="121"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="124"/>
+      <c r="I77" s="121"/>
+      <c r="J77" s="121"/>
+      <c r="K77" s="122"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="124"/>
-      <c r="C78" s="122"/>
-      <c r="G78" s="122"/>
-      <c r="H78" s="125"/>
-      <c r="I78" s="122"/>
-      <c r="J78" s="122"/>
-      <c r="K78" s="123"/>
+      <c r="B78" s="123"/>
+      <c r="C78" s="121"/>
+      <c r="G78" s="121"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="121"/>
+      <c r="J78" s="121"/>
+      <c r="K78" s="122"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="124"/>
-      <c r="C79" s="122"/>
-      <c r="G79" s="122"/>
-      <c r="H79" s="125"/>
-      <c r="I79" s="122"/>
-      <c r="J79" s="122"/>
-      <c r="K79" s="123"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="121"/>
+      <c r="G79" s="121"/>
+      <c r="H79" s="124"/>
+      <c r="I79" s="121"/>
+      <c r="J79" s="121"/>
+      <c r="K79" s="122"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="124"/>
-      <c r="C80" s="122"/>
-      <c r="D80" s="135"/>
-      <c r="G80" s="122"/>
-      <c r="H80" s="125"/>
-      <c r="I80" s="122"/>
-      <c r="J80" s="122"/>
-      <c r="K80" s="123"/>
+      <c r="B80" s="123"/>
+      <c r="C80" s="121"/>
+      <c r="D80" s="134"/>
+      <c r="G80" s="121"/>
+      <c r="H80" s="124"/>
+      <c r="I80" s="121"/>
+      <c r="J80" s="121"/>
+      <c r="K80" s="122"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="124"/>
-      <c r="C81" s="122"/>
-      <c r="D81" s="122"/>
-      <c r="E81" s="122"/>
-      <c r="F81" s="132"/>
-      <c r="G81" s="122"/>
-      <c r="H81" s="125"/>
-      <c r="I81" s="122"/>
-      <c r="J81" s="122"/>
-      <c r="K81" s="123"/>
+      <c r="B81" s="123"/>
+      <c r="C81" s="121"/>
+      <c r="D81" s="121"/>
+      <c r="E81" s="121"/>
+      <c r="F81" s="131"/>
+      <c r="G81" s="121"/>
+      <c r="H81" s="124"/>
+      <c r="I81" s="121"/>
+      <c r="J81" s="121"/>
+      <c r="K81" s="122"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="124"/>
-      <c r="C82" s="122"/>
-      <c r="D82" s="122"/>
-      <c r="E82" s="122"/>
-      <c r="F82" s="132"/>
-      <c r="G82" s="122"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="122"/>
-      <c r="J82" s="122"/>
-      <c r="K82" s="123"/>
+      <c r="B82" s="123"/>
+      <c r="C82" s="121"/>
+      <c r="D82" s="121"/>
+      <c r="E82" s="121"/>
+      <c r="F82" s="131"/>
+      <c r="G82" s="121"/>
+      <c r="H82" s="124"/>
+      <c r="I82" s="121"/>
+      <c r="J82" s="121"/>
+      <c r="K82" s="122"/>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="124"/>
-      <c r="C83" s="122"/>
-      <c r="D83" s="122"/>
-      <c r="E83" s="122"/>
-      <c r="F83" s="122"/>
-      <c r="G83" s="122"/>
-      <c r="H83" s="125"/>
-      <c r="I83" s="122"/>
-      <c r="J83" s="122"/>
-      <c r="K83" s="123"/>
+      <c r="B83" s="123"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
+      <c r="F83" s="121"/>
+      <c r="G83" s="121"/>
+      <c r="H83" s="124"/>
+      <c r="I83" s="121"/>
+      <c r="J83" s="121"/>
+      <c r="K83" s="122"/>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="124"/>
-      <c r="C84" s="122"/>
-      <c r="D84" s="122"/>
-      <c r="E84" s="122"/>
-      <c r="F84" s="122"/>
-      <c r="G84" s="122"/>
-      <c r="H84" s="125"/>
-      <c r="I84" s="122"/>
-      <c r="J84" s="122"/>
-      <c r="K84" s="123"/>
+      <c r="B84" s="123"/>
+      <c r="C84" s="121"/>
+      <c r="D84" s="121"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="121"/>
+      <c r="G84" s="121"/>
+      <c r="H84" s="124"/>
+      <c r="I84" s="121"/>
+      <c r="J84" s="121"/>
+      <c r="K84" s="122"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="124"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
-      <c r="F85" s="122"/>
-      <c r="G85" s="122"/>
-      <c r="H85" s="125"/>
-      <c r="I85" s="122"/>
-      <c r="J85" s="122"/>
-      <c r="K85" s="123"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="121"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="121"/>
+      <c r="G85" s="121"/>
+      <c r="H85" s="124"/>
+      <c r="I85" s="121"/>
+      <c r="J85" s="121"/>
+      <c r="K85" s="122"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="124"/>
-      <c r="C86" s="122"/>
-      <c r="D86" s="122"/>
-      <c r="E86" s="122"/>
-      <c r="F86" s="122"/>
-      <c r="G86" s="122"/>
-      <c r="H86" s="125"/>
-      <c r="I86" s="122"/>
-      <c r="J86" s="122"/>
-      <c r="K86" s="123"/>
+      <c r="B86" s="123"/>
+      <c r="C86" s="121"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="121"/>
+      <c r="F86" s="121"/>
+      <c r="G86" s="121"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="121"/>
+      <c r="J86" s="121"/>
+      <c r="K86" s="122"/>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" s="124"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
-      <c r="E87" s="122"/>
-      <c r="F87" s="122"/>
-      <c r="G87" s="122"/>
-      <c r="H87" s="125"/>
-      <c r="I87" s="122"/>
-      <c r="J87" s="122"/>
-      <c r="K87" s="123"/>
+      <c r="B87" s="123"/>
+      <c r="C87" s="121"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
+      <c r="F87" s="121"/>
+      <c r="G87" s="121"/>
+      <c r="H87" s="124"/>
+      <c r="I87" s="121"/>
+      <c r="J87" s="121"/>
+      <c r="K87" s="122"/>
     </row>
     <row r="88" spans="2:11">
-      <c r="B88" s="124"/>
-      <c r="C88" s="122"/>
-      <c r="D88" s="122"/>
-      <c r="E88" s="122"/>
-      <c r="F88" s="122"/>
-      <c r="G88" s="122"/>
-      <c r="H88" s="125"/>
-      <c r="I88" s="122"/>
-      <c r="J88" s="122"/>
-      <c r="K88" s="123"/>
+      <c r="B88" s="123"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="121"/>
+      <c r="F88" s="121"/>
+      <c r="G88" s="121"/>
+      <c r="H88" s="124"/>
+      <c r="I88" s="121"/>
+      <c r="J88" s="121"/>
+      <c r="K88" s="122"/>
     </row>
     <row r="89" spans="2:11">
-      <c r="B89" s="124"/>
-      <c r="C89" s="122"/>
-      <c r="D89" s="122"/>
-      <c r="E89" s="122"/>
-      <c r="F89" s="122"/>
-      <c r="G89" s="122"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="122"/>
-      <c r="J89" s="122"/>
-      <c r="K89" s="123"/>
+      <c r="B89" s="123"/>
+      <c r="C89" s="121"/>
+      <c r="D89" s="121"/>
+      <c r="E89" s="121"/>
+      <c r="F89" s="121"/>
+      <c r="G89" s="121"/>
+      <c r="H89" s="124"/>
+      <c r="I89" s="121"/>
+      <c r="J89" s="121"/>
+      <c r="K89" s="122"/>
     </row>
     <row r="90" spans="2:11">
-      <c r="B90" s="124"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
-      <c r="E90" s="122"/>
-      <c r="F90" s="122"/>
-      <c r="G90" s="122"/>
-      <c r="H90" s="125"/>
-      <c r="I90" s="122"/>
-      <c r="J90" s="122"/>
-      <c r="K90" s="123"/>
+      <c r="B90" s="123"/>
+      <c r="C90" s="121"/>
+      <c r="D90" s="121"/>
+      <c r="E90" s="121"/>
+      <c r="F90" s="121"/>
+      <c r="G90" s="121"/>
+      <c r="H90" s="124"/>
+      <c r="I90" s="121"/>
+      <c r="J90" s="121"/>
+      <c r="K90" s="122"/>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="124"/>
-      <c r="C91" s="122"/>
-      <c r="D91" s="122"/>
-      <c r="E91" s="122"/>
-      <c r="F91" s="122"/>
-      <c r="G91" s="122"/>
-      <c r="H91" s="125"/>
-      <c r="I91" s="122"/>
-      <c r="J91" s="122"/>
-      <c r="K91" s="123"/>
+      <c r="B91" s="123"/>
+      <c r="C91" s="121"/>
+      <c r="D91" s="121"/>
+      <c r="E91" s="121"/>
+      <c r="F91" s="121"/>
+      <c r="G91" s="121"/>
+      <c r="H91" s="124"/>
+      <c r="I91" s="121"/>
+      <c r="J91" s="121"/>
+      <c r="K91" s="122"/>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="124"/>
-      <c r="C92" s="122"/>
-      <c r="D92" s="122"/>
-      <c r="E92" s="122"/>
-      <c r="F92" s="122"/>
-      <c r="G92" s="122"/>
-      <c r="H92" s="125"/>
-      <c r="I92" s="122"/>
-      <c r="J92" s="122"/>
-      <c r="K92" s="123"/>
+      <c r="B92" s="123"/>
+      <c r="C92" s="121"/>
+      <c r="D92" s="121"/>
+      <c r="E92" s="121"/>
+      <c r="F92" s="121"/>
+      <c r="G92" s="121"/>
+      <c r="H92" s="124"/>
+      <c r="I92" s="121"/>
+      <c r="J92" s="121"/>
+      <c r="K92" s="122"/>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" s="124"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="122"/>
-      <c r="E93" s="122"/>
-      <c r="F93" s="122"/>
-      <c r="G93" s="122"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="122"/>
-      <c r="J93" s="122"/>
-      <c r="K93" s="123"/>
+      <c r="B93" s="123"/>
+      <c r="C93" s="121"/>
+      <c r="D93" s="121"/>
+      <c r="E93" s="121"/>
+      <c r="F93" s="121"/>
+      <c r="G93" s="121"/>
+      <c r="H93" s="124"/>
+      <c r="I93" s="121"/>
+      <c r="J93" s="121"/>
+      <c r="K93" s="122"/>
     </row>
     <row r="94" spans="2:11">
-      <c r="B94" s="124"/>
-      <c r="C94" s="122"/>
-      <c r="D94" s="122"/>
-      <c r="E94" s="122"/>
-      <c r="F94" s="122"/>
-      <c r="G94" s="122"/>
-      <c r="H94" s="125"/>
-      <c r="I94" s="122"/>
-      <c r="J94" s="122"/>
-      <c r="K94" s="123"/>
+      <c r="B94" s="123"/>
+      <c r="C94" s="121"/>
+      <c r="D94" s="121"/>
+      <c r="E94" s="121"/>
+      <c r="F94" s="121"/>
+      <c r="G94" s="121"/>
+      <c r="H94" s="124"/>
+      <c r="I94" s="121"/>
+      <c r="J94" s="121"/>
+      <c r="K94" s="122"/>
     </row>
     <row r="95" spans="2:11">
-      <c r="B95" s="124"/>
-      <c r="C95" s="122"/>
-      <c r="D95" s="122"/>
-      <c r="E95" s="122"/>
-      <c r="F95" s="122"/>
-      <c r="G95" s="122"/>
-      <c r="H95" s="125"/>
-      <c r="I95" s="122"/>
-      <c r="J95" s="122"/>
-      <c r="K95" s="123"/>
+      <c r="B95" s="123"/>
+      <c r="C95" s="121"/>
+      <c r="D95" s="121"/>
+      <c r="E95" s="121"/>
+      <c r="F95" s="121"/>
+      <c r="G95" s="121"/>
+      <c r="H95" s="124"/>
+      <c r="I95" s="121"/>
+      <c r="J95" s="121"/>
+      <c r="K95" s="122"/>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="124"/>
-      <c r="C96" s="122"/>
-      <c r="D96" s="122"/>
-      <c r="E96" s="122"/>
-      <c r="F96" s="122"/>
-      <c r="G96" s="122"/>
-      <c r="H96" s="125"/>
-      <c r="I96" s="122"/>
-      <c r="J96" s="122"/>
-      <c r="K96" s="123"/>
+      <c r="B96" s="123"/>
+      <c r="C96" s="121"/>
+      <c r="D96" s="121"/>
+      <c r="E96" s="121"/>
+      <c r="F96" s="121"/>
+      <c r="G96" s="121"/>
+      <c r="H96" s="124"/>
+      <c r="I96" s="121"/>
+      <c r="J96" s="121"/>
+      <c r="K96" s="122"/>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" s="124"/>
-      <c r="C97" s="122"/>
-      <c r="D97" s="122"/>
-      <c r="E97" s="122"/>
-      <c r="F97" s="122"/>
-      <c r="G97" s="122"/>
-      <c r="H97" s="125"/>
-      <c r="I97" s="122"/>
-      <c r="J97" s="122"/>
-      <c r="K97" s="123"/>
+      <c r="B97" s="123"/>
+      <c r="C97" s="121"/>
+      <c r="D97" s="121"/>
+      <c r="E97" s="121"/>
+      <c r="F97" s="121"/>
+      <c r="G97" s="121"/>
+      <c r="H97" s="124"/>
+      <c r="I97" s="121"/>
+      <c r="J97" s="121"/>
+      <c r="K97" s="122"/>
     </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="124"/>
-      <c r="C98" s="122"/>
-      <c r="D98" s="122"/>
-      <c r="E98" s="122"/>
-      <c r="F98" s="122"/>
-      <c r="G98" s="122"/>
-      <c r="H98" s="125"/>
-      <c r="I98" s="122"/>
-      <c r="J98" s="122"/>
-      <c r="K98" s="123"/>
+      <c r="B98" s="123"/>
+      <c r="C98" s="121"/>
+      <c r="D98" s="121"/>
+      <c r="E98" s="121"/>
+      <c r="F98" s="121"/>
+      <c r="G98" s="121"/>
+      <c r="H98" s="124"/>
+      <c r="I98" s="121"/>
+      <c r="J98" s="121"/>
+      <c r="K98" s="122"/>
     </row>
     <row r="99" spans="2:11">
-      <c r="B99" s="124"/>
-      <c r="C99" s="122"/>
-      <c r="D99" s="122"/>
-      <c r="E99" s="122"/>
-      <c r="F99" s="122"/>
-      <c r="G99" s="122"/>
-      <c r="H99" s="125"/>
-      <c r="I99" s="122"/>
-      <c r="J99" s="122"/>
-      <c r="K99" s="123"/>
+      <c r="B99" s="123"/>
+      <c r="C99" s="121"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="121"/>
+      <c r="G99" s="121"/>
+      <c r="H99" s="124"/>
+      <c r="I99" s="121"/>
+      <c r="J99" s="121"/>
+      <c r="K99" s="122"/>
     </row>
     <row r="100" spans="2:11">
-      <c r="B100" s="124"/>
-      <c r="C100" s="122"/>
-      <c r="D100" s="122"/>
-      <c r="E100" s="122"/>
-      <c r="F100" s="122"/>
-      <c r="G100" s="122"/>
-      <c r="H100" s="125"/>
-      <c r="I100" s="122"/>
-      <c r="J100" s="122"/>
-      <c r="K100" s="123"/>
+      <c r="B100" s="123"/>
+      <c r="C100" s="121"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="121"/>
+      <c r="F100" s="121"/>
+      <c r="G100" s="121"/>
+      <c r="H100" s="124"/>
+      <c r="I100" s="121"/>
+      <c r="J100" s="121"/>
+      <c r="K100" s="122"/>
     </row>
     <row r="101" spans="2:11">
-      <c r="B101" s="124"/>
-      <c r="C101" s="122"/>
-      <c r="D101" s="122"/>
-      <c r="E101" s="122"/>
-      <c r="F101" s="122"/>
-      <c r="G101" s="122"/>
-      <c r="H101" s="125"/>
-      <c r="I101" s="122"/>
-      <c r="J101" s="122"/>
-      <c r="K101" s="123"/>
+      <c r="B101" s="123"/>
+      <c r="C101" s="121"/>
+      <c r="D101" s="121"/>
+      <c r="E101" s="121"/>
+      <c r="F101" s="121"/>
+      <c r="G101" s="121"/>
+      <c r="H101" s="124"/>
+      <c r="I101" s="121"/>
+      <c r="J101" s="121"/>
+      <c r="K101" s="122"/>
     </row>
     <row r="102" spans="2:11">
-      <c r="B102" s="124"/>
-      <c r="C102" s="122"/>
-      <c r="D102" s="122"/>
-      <c r="E102" s="122"/>
-      <c r="F102" s="122"/>
-      <c r="G102" s="122"/>
-      <c r="H102" s="125"/>
-      <c r="I102" s="122"/>
-      <c r="J102" s="122"/>
-      <c r="K102" s="123"/>
+      <c r="B102" s="123"/>
+      <c r="C102" s="121"/>
+      <c r="D102" s="121"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="121"/>
+      <c r="G102" s="121"/>
+      <c r="H102" s="124"/>
+      <c r="I102" s="121"/>
+      <c r="J102" s="121"/>
+      <c r="K102" s="122"/>
     </row>
     <row r="103" spans="2:11">
-      <c r="B103" s="124"/>
-      <c r="C103" s="122"/>
-      <c r="D103" s="122"/>
-      <c r="E103" s="122"/>
-      <c r="F103" s="122"/>
-      <c r="G103" s="122"/>
-      <c r="H103" s="125"/>
-      <c r="I103" s="122"/>
-      <c r="J103" s="122"/>
-      <c r="K103" s="123"/>
+      <c r="B103" s="123"/>
+      <c r="C103" s="121"/>
+      <c r="D103" s="121"/>
+      <c r="E103" s="121"/>
+      <c r="F103" s="121"/>
+      <c r="G103" s="121"/>
+      <c r="H103" s="124"/>
+      <c r="I103" s="121"/>
+      <c r="J103" s="121"/>
+      <c r="K103" s="122"/>
     </row>
     <row r="104" spans="2:11">
-      <c r="B104" s="124"/>
-      <c r="C104" s="122"/>
-      <c r="D104" s="122"/>
-      <c r="E104" s="122"/>
-      <c r="F104" s="122"/>
-      <c r="G104" s="122"/>
-      <c r="H104" s="125"/>
-      <c r="I104" s="122"/>
-      <c r="J104" s="122"/>
-      <c r="K104" s="123"/>
+      <c r="B104" s="123"/>
+      <c r="C104" s="121"/>
+      <c r="D104" s="121"/>
+      <c r="E104" s="121"/>
+      <c r="F104" s="121"/>
+      <c r="G104" s="121"/>
+      <c r="H104" s="124"/>
+      <c r="I104" s="121"/>
+      <c r="J104" s="121"/>
+      <c r="K104" s="122"/>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" s="124"/>
-      <c r="C105" s="122"/>
-      <c r="D105" s="122"/>
-      <c r="E105" s="122"/>
-      <c r="F105" s="122"/>
-      <c r="G105" s="122"/>
-      <c r="H105" s="125"/>
-      <c r="I105" s="122"/>
-      <c r="J105" s="122"/>
-      <c r="K105" s="123"/>
+      <c r="B105" s="123"/>
+      <c r="C105" s="121"/>
+      <c r="D105" s="121"/>
+      <c r="E105" s="121"/>
+      <c r="F105" s="121"/>
+      <c r="G105" s="121"/>
+      <c r="H105" s="124"/>
+      <c r="I105" s="121"/>
+      <c r="J105" s="121"/>
+      <c r="K105" s="122"/>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" s="124"/>
-      <c r="C106" s="122"/>
-      <c r="D106" s="122"/>
-      <c r="E106" s="122"/>
-      <c r="F106" s="122"/>
-      <c r="G106" s="122"/>
-      <c r="H106" s="125"/>
-      <c r="I106" s="122"/>
-      <c r="J106" s="122"/>
-      <c r="K106" s="123"/>
+      <c r="B106" s="123"/>
+      <c r="C106" s="121"/>
+      <c r="D106" s="121"/>
+      <c r="E106" s="121"/>
+      <c r="F106" s="121"/>
+      <c r="G106" s="121"/>
+      <c r="H106" s="124"/>
+      <c r="I106" s="121"/>
+      <c r="J106" s="121"/>
+      <c r="K106" s="122"/>
     </row>
     <row r="107" spans="2:11">
-      <c r="B107" s="124"/>
-      <c r="C107" s="122"/>
-      <c r="D107" s="122"/>
-      <c r="E107" s="122"/>
-      <c r="F107" s="122"/>
-      <c r="G107" s="122"/>
-      <c r="H107" s="125"/>
-      <c r="I107" s="122"/>
-      <c r="J107" s="122"/>
-      <c r="K107" s="123"/>
+      <c r="B107" s="123"/>
+      <c r="C107" s="121"/>
+      <c r="D107" s="121"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="121"/>
+      <c r="G107" s="121"/>
+      <c r="H107" s="124"/>
+      <c r="I107" s="121"/>
+      <c r="J107" s="121"/>
+      <c r="K107" s="122"/>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="124"/>
-      <c r="C108" s="122"/>
-      <c r="D108" s="122"/>
-      <c r="E108" s="122"/>
-      <c r="F108" s="122"/>
-      <c r="G108" s="122"/>
-      <c r="H108" s="125"/>
-      <c r="I108" s="122"/>
-      <c r="J108" s="122"/>
-      <c r="K108" s="123"/>
+      <c r="B108" s="123"/>
+      <c r="C108" s="121"/>
+      <c r="D108" s="121"/>
+      <c r="E108" s="121"/>
+      <c r="F108" s="121"/>
+      <c r="G108" s="121"/>
+      <c r="H108" s="124"/>
+      <c r="I108" s="121"/>
+      <c r="J108" s="121"/>
+      <c r="K108" s="122"/>
     </row>
     <row r="109" spans="2:11">
-      <c r="B109" s="124"/>
-      <c r="C109" s="122"/>
-      <c r="D109" s="122"/>
-      <c r="E109" s="122"/>
-      <c r="F109" s="122"/>
-      <c r="G109" s="122"/>
-      <c r="H109" s="125"/>
-      <c r="I109" s="122"/>
-      <c r="J109" s="122"/>
-      <c r="K109" s="123"/>
+      <c r="B109" s="123"/>
+      <c r="C109" s="121"/>
+      <c r="D109" s="121"/>
+      <c r="E109" s="121"/>
+      <c r="F109" s="121"/>
+      <c r="G109" s="121"/>
+      <c r="H109" s="124"/>
+      <c r="I109" s="121"/>
+      <c r="J109" s="121"/>
+      <c r="K109" s="122"/>
     </row>
     <row r="110" spans="2:11">
-      <c r="B110" s="124"/>
-      <c r="C110" s="122"/>
-      <c r="D110" s="122"/>
-      <c r="E110" s="122"/>
-      <c r="F110" s="122"/>
-      <c r="G110" s="122"/>
-      <c r="H110" s="125"/>
-      <c r="I110" s="122"/>
-      <c r="J110" s="122"/>
-      <c r="K110" s="123"/>
+      <c r="B110" s="123"/>
+      <c r="C110" s="121"/>
+      <c r="D110" s="121"/>
+      <c r="E110" s="121"/>
+      <c r="F110" s="121"/>
+      <c r="G110" s="121"/>
+      <c r="H110" s="124"/>
+      <c r="I110" s="121"/>
+      <c r="J110" s="121"/>
+      <c r="K110" s="122"/>
     </row>
     <row r="111" spans="2:11">
-      <c r="B111" s="124"/>
-      <c r="C111" s="122"/>
-      <c r="D111" s="122"/>
-      <c r="E111" s="122"/>
-      <c r="F111" s="122"/>
-      <c r="G111" s="122"/>
-      <c r="H111" s="125"/>
-      <c r="I111" s="122"/>
-      <c r="J111" s="122"/>
-      <c r="K111" s="123"/>
+      <c r="B111" s="123"/>
+      <c r="C111" s="121"/>
+      <c r="D111" s="121"/>
+      <c r="E111" s="121"/>
+      <c r="F111" s="121"/>
+      <c r="G111" s="121"/>
+      <c r="H111" s="124"/>
+      <c r="I111" s="121"/>
+      <c r="J111" s="121"/>
+      <c r="K111" s="122"/>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="124"/>
-      <c r="C112" s="122"/>
-      <c r="D112" s="122"/>
-      <c r="E112" s="122"/>
-      <c r="F112" s="122"/>
-      <c r="G112" s="122"/>
-      <c r="H112" s="125"/>
-      <c r="I112" s="122"/>
-      <c r="J112" s="122"/>
-      <c r="K112" s="123"/>
+      <c r="B112" s="123"/>
+      <c r="C112" s="121"/>
+      <c r="D112" s="121"/>
+      <c r="E112" s="121"/>
+      <c r="F112" s="121"/>
+      <c r="G112" s="121"/>
+      <c r="H112" s="124"/>
+      <c r="I112" s="121"/>
+      <c r="J112" s="121"/>
+      <c r="K112" s="122"/>
     </row>
     <row r="113" spans="2:11">
-      <c r="B113" s="124"/>
-      <c r="C113" s="122"/>
-      <c r="D113" s="122"/>
-      <c r="E113" s="122"/>
-      <c r="F113" s="122"/>
-      <c r="G113" s="122"/>
-      <c r="H113" s="125"/>
-      <c r="I113" s="122"/>
-      <c r="J113" s="122"/>
-      <c r="K113" s="123"/>
+      <c r="B113" s="123"/>
+      <c r="C113" s="121"/>
+      <c r="D113" s="121"/>
+      <c r="E113" s="121"/>
+      <c r="F113" s="121"/>
+      <c r="G113" s="121"/>
+      <c r="H113" s="124"/>
+      <c r="I113" s="121"/>
+      <c r="J113" s="121"/>
+      <c r="K113" s="122"/>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="124"/>
-      <c r="C114" s="122"/>
-      <c r="D114" s="122"/>
-      <c r="E114" s="122"/>
-      <c r="F114" s="122"/>
-      <c r="G114" s="122"/>
-      <c r="H114" s="125"/>
-      <c r="I114" s="122"/>
-      <c r="J114" s="122"/>
-      <c r="K114" s="123"/>
+      <c r="B114" s="123"/>
+      <c r="C114" s="121"/>
+      <c r="D114" s="121"/>
+      <c r="E114" s="121"/>
+      <c r="F114" s="121"/>
+      <c r="G114" s="121"/>
+      <c r="H114" s="124"/>
+      <c r="I114" s="121"/>
+      <c r="J114" s="121"/>
+      <c r="K114" s="122"/>
     </row>
     <row r="115" spans="2:11">
-      <c r="B115" s="124"/>
-      <c r="C115" s="122"/>
-      <c r="D115" s="122"/>
-      <c r="E115" s="122"/>
-      <c r="F115" s="122"/>
-      <c r="G115" s="122"/>
-      <c r="H115" s="125"/>
-      <c r="I115" s="122"/>
-      <c r="J115" s="122"/>
-      <c r="K115" s="123"/>
+      <c r="B115" s="123"/>
+      <c r="C115" s="121"/>
+      <c r="D115" s="121"/>
+      <c r="E115" s="121"/>
+      <c r="F115" s="121"/>
+      <c r="G115" s="121"/>
+      <c r="H115" s="124"/>
+      <c r="I115" s="121"/>
+      <c r="J115" s="121"/>
+      <c r="K115" s="122"/>
     </row>
     <row r="116" spans="2:11">
-      <c r="B116" s="124"/>
-      <c r="C116" s="122"/>
-      <c r="D116" s="122"/>
-      <c r="E116" s="122"/>
-      <c r="F116" s="122"/>
-      <c r="G116" s="122"/>
-      <c r="H116" s="125"/>
-      <c r="I116" s="122"/>
-      <c r="J116" s="122"/>
-      <c r="K116" s="123"/>
+      <c r="B116" s="123"/>
+      <c r="C116" s="121"/>
+      <c r="D116" s="121"/>
+      <c r="E116" s="121"/>
+      <c r="F116" s="121"/>
+      <c r="G116" s="121"/>
+      <c r="H116" s="124"/>
+      <c r="I116" s="121"/>
+      <c r="J116" s="121"/>
+      <c r="K116" s="122"/>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" s="124"/>
-      <c r="C117" s="122"/>
-      <c r="D117" s="122"/>
-      <c r="E117" s="122"/>
-      <c r="F117" s="122"/>
-      <c r="G117" s="122"/>
-      <c r="H117" s="125"/>
-      <c r="I117" s="122"/>
-      <c r="J117" s="122"/>
-      <c r="K117" s="123"/>
+      <c r="B117" s="123"/>
+      <c r="C117" s="121"/>
+      <c r="D117" s="121"/>
+      <c r="E117" s="121"/>
+      <c r="F117" s="121"/>
+      <c r="G117" s="121"/>
+      <c r="H117" s="124"/>
+      <c r="I117" s="121"/>
+      <c r="J117" s="121"/>
+      <c r="K117" s="122"/>
     </row>
     <row r="118" spans="2:11">
-      <c r="B118" s="124"/>
-      <c r="C118" s="122"/>
-      <c r="D118" s="122"/>
-      <c r="E118" s="122"/>
-      <c r="F118" s="122"/>
-      <c r="G118" s="122"/>
-      <c r="H118" s="125"/>
-      <c r="I118" s="122"/>
-      <c r="J118" s="122"/>
-      <c r="K118" s="123"/>
+      <c r="B118" s="123"/>
+      <c r="C118" s="121"/>
+      <c r="D118" s="121"/>
+      <c r="E118" s="121"/>
+      <c r="F118" s="121"/>
+      <c r="G118" s="121"/>
+      <c r="H118" s="124"/>
+      <c r="I118" s="121"/>
+      <c r="J118" s="121"/>
+      <c r="K118" s="122"/>
     </row>
     <row r="119" spans="2:11">
-      <c r="B119" s="124"/>
-      <c r="C119" s="122"/>
-      <c r="D119" s="122"/>
-      <c r="E119" s="122"/>
-      <c r="F119" s="122"/>
-      <c r="G119" s="122"/>
-      <c r="H119" s="125"/>
-      <c r="I119" s="122"/>
-      <c r="J119" s="122"/>
-      <c r="K119" s="123"/>
+      <c r="B119" s="123"/>
+      <c r="C119" s="121"/>
+      <c r="D119" s="121"/>
+      <c r="E119" s="121"/>
+      <c r="F119" s="121"/>
+      <c r="G119" s="121"/>
+      <c r="H119" s="124"/>
+      <c r="I119" s="121"/>
+      <c r="J119" s="121"/>
+      <c r="K119" s="122"/>
     </row>
     <row r="120" spans="2:11">
-      <c r="B120" s="124"/>
-      <c r="C120" s="122"/>
-      <c r="D120" s="122"/>
-      <c r="E120" s="122"/>
-      <c r="F120" s="122"/>
-      <c r="G120" s="122"/>
-      <c r="H120" s="125"/>
-      <c r="I120" s="122"/>
-      <c r="J120" s="122"/>
-      <c r="K120" s="123"/>
+      <c r="B120" s="123"/>
+      <c r="C120" s="121"/>
+      <c r="D120" s="121"/>
+      <c r="E120" s="121"/>
+      <c r="F120" s="121"/>
+      <c r="G120" s="121"/>
+      <c r="H120" s="124"/>
+      <c r="I120" s="121"/>
+      <c r="J120" s="121"/>
+      <c r="K120" s="122"/>
     </row>
     <row r="121" spans="2:11">
-      <c r="B121" s="124"/>
-      <c r="C121" s="122"/>
-      <c r="D121" s="122"/>
-      <c r="E121" s="122"/>
-      <c r="F121" s="122"/>
-      <c r="G121" s="122"/>
-      <c r="H121" s="125"/>
-      <c r="I121" s="122"/>
-      <c r="J121" s="122"/>
-      <c r="K121" s="123"/>
+      <c r="B121" s="123"/>
+      <c r="C121" s="121"/>
+      <c r="D121" s="121"/>
+      <c r="E121" s="121"/>
+      <c r="F121" s="121"/>
+      <c r="G121" s="121"/>
+      <c r="H121" s="124"/>
+      <c r="I121" s="121"/>
+      <c r="J121" s="121"/>
+      <c r="K121" s="122"/>
     </row>
     <row r="122" spans="2:11">
-      <c r="B122" s="124"/>
-      <c r="C122" s="122"/>
-      <c r="D122" s="122"/>
-      <c r="E122" s="122"/>
-      <c r="F122" s="122"/>
-      <c r="G122" s="122"/>
-      <c r="H122" s="125"/>
-      <c r="I122" s="122"/>
-      <c r="J122" s="122"/>
-      <c r="K122" s="123"/>
+      <c r="B122" s="123"/>
+      <c r="C122" s="121"/>
+      <c r="D122" s="121"/>
+      <c r="E122" s="121"/>
+      <c r="F122" s="121"/>
+      <c r="G122" s="121"/>
+      <c r="H122" s="124"/>
+      <c r="I122" s="121"/>
+      <c r="J122" s="121"/>
+      <c r="K122" s="122"/>
     </row>
     <row r="123" spans="2:11">
-      <c r="B123" s="124"/>
-      <c r="C123" s="122"/>
-      <c r="D123" s="122"/>
-      <c r="E123" s="122"/>
-      <c r="F123" s="122"/>
-      <c r="G123" s="122"/>
-      <c r="H123" s="125"/>
-      <c r="I123" s="122"/>
-      <c r="J123" s="122"/>
-      <c r="K123" s="123"/>
+      <c r="B123" s="123"/>
+      <c r="C123" s="121"/>
+      <c r="D123" s="121"/>
+      <c r="E123" s="121"/>
+      <c r="F123" s="121"/>
+      <c r="G123" s="121"/>
+      <c r="H123" s="124"/>
+      <c r="I123" s="121"/>
+      <c r="J123" s="121"/>
+      <c r="K123" s="122"/>
     </row>
     <row r="124" spans="2:11">
-      <c r="B124" s="124"/>
-      <c r="C124" s="122"/>
-      <c r="D124" s="122"/>
-      <c r="E124" s="122"/>
-      <c r="F124" s="122"/>
-      <c r="G124" s="122"/>
-      <c r="H124" s="125"/>
-      <c r="I124" s="122"/>
-      <c r="J124" s="122"/>
-      <c r="K124" s="123"/>
+      <c r="B124" s="123"/>
+      <c r="C124" s="121"/>
+      <c r="D124" s="121"/>
+      <c r="E124" s="121"/>
+      <c r="F124" s="121"/>
+      <c r="G124" s="121"/>
+      <c r="H124" s="124"/>
+      <c r="I124" s="121"/>
+      <c r="J124" s="121"/>
+      <c r="K124" s="122"/>
     </row>
     <row r="125" spans="2:11">
-      <c r="B125" s="124"/>
-      <c r="C125" s="122"/>
-      <c r="D125" s="122"/>
-      <c r="E125" s="122"/>
-      <c r="F125" s="122"/>
-      <c r="G125" s="122"/>
-      <c r="H125" s="125"/>
-      <c r="I125" s="122"/>
-      <c r="J125" s="122"/>
-      <c r="K125" s="123"/>
+      <c r="B125" s="123"/>
+      <c r="C125" s="121"/>
+      <c r="D125" s="121"/>
+      <c r="E125" s="121"/>
+      <c r="F125" s="121"/>
+      <c r="G125" s="121"/>
+      <c r="H125" s="124"/>
+      <c r="I125" s="121"/>
+      <c r="J125" s="121"/>
+      <c r="K125" s="122"/>
     </row>
     <row r="126" spans="2:11">
-      <c r="B126" s="124"/>
-      <c r="C126" s="122"/>
-      <c r="D126" s="122"/>
-      <c r="E126" s="122"/>
-      <c r="F126" s="122"/>
-      <c r="G126" s="122"/>
-      <c r="H126" s="125"/>
-      <c r="I126" s="122"/>
-      <c r="J126" s="122"/>
-      <c r="K126" s="123"/>
+      <c r="B126" s="123"/>
+      <c r="C126" s="121"/>
+      <c r="D126" s="121"/>
+      <c r="E126" s="121"/>
+      <c r="F126" s="121"/>
+      <c r="G126" s="121"/>
+      <c r="H126" s="124"/>
+      <c r="I126" s="121"/>
+      <c r="J126" s="121"/>
+      <c r="K126" s="122"/>
     </row>
     <row r="127" spans="2:11">
-      <c r="B127" s="124"/>
-      <c r="C127" s="122"/>
-      <c r="D127" s="122"/>
-      <c r="E127" s="122"/>
-      <c r="F127" s="122"/>
-      <c r="G127" s="122"/>
-      <c r="H127" s="125"/>
-      <c r="I127" s="122"/>
-      <c r="J127" s="122"/>
-      <c r="K127" s="123"/>
+      <c r="B127" s="123"/>
+      <c r="C127" s="121"/>
+      <c r="D127" s="121"/>
+      <c r="E127" s="121"/>
+      <c r="F127" s="121"/>
+      <c r="G127" s="121"/>
+      <c r="H127" s="124"/>
+      <c r="I127" s="121"/>
+      <c r="J127" s="121"/>
+      <c r="K127" s="122"/>
     </row>
     <row r="128" spans="2:11">
-      <c r="B128" s="124"/>
-      <c r="C128" s="122"/>
-      <c r="D128" s="122"/>
-      <c r="E128" s="122"/>
-      <c r="F128" s="122"/>
-      <c r="G128" s="122"/>
-      <c r="H128" s="125"/>
-      <c r="I128" s="122"/>
-      <c r="J128" s="122"/>
-      <c r="K128" s="123"/>
+      <c r="B128" s="123"/>
+      <c r="C128" s="121"/>
+      <c r="D128" s="121"/>
+      <c r="E128" s="121"/>
+      <c r="F128" s="121"/>
+      <c r="G128" s="121"/>
+      <c r="H128" s="124"/>
+      <c r="I128" s="121"/>
+      <c r="J128" s="121"/>
+      <c r="K128" s="122"/>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" s="124"/>
-      <c r="C129" s="122"/>
-      <c r="D129" s="122"/>
-      <c r="E129" s="122"/>
-      <c r="F129" s="122"/>
-      <c r="G129" s="122"/>
-      <c r="H129" s="125"/>
-      <c r="I129" s="122"/>
-      <c r="J129" s="122"/>
-      <c r="K129" s="123"/>
+      <c r="B129" s="123"/>
+      <c r="C129" s="121"/>
+      <c r="D129" s="121"/>
+      <c r="E129" s="121"/>
+      <c r="F129" s="121"/>
+      <c r="G129" s="121"/>
+      <c r="H129" s="124"/>
+      <c r="I129" s="121"/>
+      <c r="J129" s="121"/>
+      <c r="K129" s="122"/>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" s="124"/>
-      <c r="C130" s="122"/>
-      <c r="D130" s="122"/>
-      <c r="E130" s="122"/>
-      <c r="F130" s="122"/>
-      <c r="G130" s="122"/>
-      <c r="H130" s="125"/>
-      <c r="I130" s="122"/>
-      <c r="J130" s="122"/>
-      <c r="K130" s="123"/>
+      <c r="B130" s="123"/>
+      <c r="C130" s="121"/>
+      <c r="D130" s="121"/>
+      <c r="E130" s="121"/>
+      <c r="F130" s="121"/>
+      <c r="G130" s="121"/>
+      <c r="H130" s="124"/>
+      <c r="I130" s="121"/>
+      <c r="J130" s="121"/>
+      <c r="K130" s="122"/>
     </row>
     <row r="131" spans="2:11">
-      <c r="B131" s="124"/>
-      <c r="C131" s="122"/>
-      <c r="D131" s="122"/>
-      <c r="E131" s="122"/>
-      <c r="F131" s="122"/>
-      <c r="G131" s="122"/>
-      <c r="H131" s="125"/>
-      <c r="I131" s="122"/>
-      <c r="J131" s="122"/>
-      <c r="K131" s="123"/>
+      <c r="B131" s="123"/>
+      <c r="C131" s="121"/>
+      <c r="D131" s="121"/>
+      <c r="E131" s="121"/>
+      <c r="F131" s="121"/>
+      <c r="G131" s="121"/>
+      <c r="H131" s="124"/>
+      <c r="I131" s="121"/>
+      <c r="J131" s="121"/>
+      <c r="K131" s="122"/>
     </row>
     <row r="132" spans="2:11">
-      <c r="B132" s="124"/>
-      <c r="C132" s="122"/>
-      <c r="D132" s="122"/>
-      <c r="E132" s="122"/>
-      <c r="F132" s="122"/>
-      <c r="G132" s="122"/>
-      <c r="H132" s="125"/>
-      <c r="I132" s="122"/>
-      <c r="J132" s="122"/>
-      <c r="K132" s="123"/>
+      <c r="B132" s="123"/>
+      <c r="C132" s="121"/>
+      <c r="D132" s="121"/>
+      <c r="E132" s="121"/>
+      <c r="F132" s="121"/>
+      <c r="G132" s="121"/>
+      <c r="H132" s="124"/>
+      <c r="I132" s="121"/>
+      <c r="J132" s="121"/>
+      <c r="K132" s="122"/>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" s="124"/>
-      <c r="C133" s="122"/>
-      <c r="D133" s="122"/>
-      <c r="E133" s="122"/>
-      <c r="F133" s="122"/>
-      <c r="G133" s="122"/>
-      <c r="H133" s="125"/>
-      <c r="I133" s="122"/>
-      <c r="J133" s="122"/>
-      <c r="K133" s="123"/>
+      <c r="B133" s="123"/>
+      <c r="C133" s="121"/>
+      <c r="D133" s="121"/>
+      <c r="E133" s="121"/>
+      <c r="F133" s="121"/>
+      <c r="G133" s="121"/>
+      <c r="H133" s="124"/>
+      <c r="I133" s="121"/>
+      <c r="J133" s="121"/>
+      <c r="K133" s="122"/>
     </row>
     <row r="134" spans="2:11">
-      <c r="B134" s="124"/>
-      <c r="C134" s="122"/>
-      <c r="D134" s="122"/>
-      <c r="E134" s="122"/>
-      <c r="F134" s="122"/>
-      <c r="G134" s="122"/>
-      <c r="H134" s="125"/>
-      <c r="I134" s="122"/>
-      <c r="J134" s="122"/>
-      <c r="K134" s="123"/>
+      <c r="B134" s="123"/>
+      <c r="C134" s="121"/>
+      <c r="D134" s="121"/>
+      <c r="E134" s="121"/>
+      <c r="F134" s="121"/>
+      <c r="G134" s="121"/>
+      <c r="H134" s="124"/>
+      <c r="I134" s="121"/>
+      <c r="J134" s="121"/>
+      <c r="K134" s="122"/>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" s="124"/>
-      <c r="C135" s="122"/>
-      <c r="D135" s="122"/>
-      <c r="E135" s="122"/>
-      <c r="F135" s="122"/>
-      <c r="G135" s="122"/>
-      <c r="H135" s="125"/>
-      <c r="I135" s="122"/>
-      <c r="J135" s="122"/>
-      <c r="K135" s="123"/>
+      <c r="B135" s="123"/>
+      <c r="C135" s="121"/>
+      <c r="D135" s="121"/>
+      <c r="E135" s="121"/>
+      <c r="F135" s="121"/>
+      <c r="G135" s="121"/>
+      <c r="H135" s="124"/>
+      <c r="I135" s="121"/>
+      <c r="J135" s="121"/>
+      <c r="K135" s="122"/>
     </row>
     <row r="136" spans="2:11">
-      <c r="B136" s="124"/>
-      <c r="C136" s="122"/>
-      <c r="D136" s="122"/>
-      <c r="E136" s="122"/>
-      <c r="F136" s="122"/>
-      <c r="G136" s="122"/>
-      <c r="H136" s="125"/>
-      <c r="I136" s="122"/>
-      <c r="J136" s="122"/>
-      <c r="K136" s="123"/>
+      <c r="B136" s="123"/>
+      <c r="C136" s="121"/>
+      <c r="D136" s="121"/>
+      <c r="E136" s="121"/>
+      <c r="F136" s="121"/>
+      <c r="G136" s="121"/>
+      <c r="H136" s="124"/>
+      <c r="I136" s="121"/>
+      <c r="J136" s="121"/>
+      <c r="K136" s="122"/>
     </row>
     <row r="137" spans="2:11">
-      <c r="B137" s="124"/>
-      <c r="C137" s="122"/>
-      <c r="D137" s="122"/>
-      <c r="E137" s="122"/>
-      <c r="F137" s="122"/>
-      <c r="G137" s="122"/>
-      <c r="H137" s="125"/>
-      <c r="I137" s="122"/>
-      <c r="J137" s="122"/>
-      <c r="K137" s="123"/>
+      <c r="B137" s="123"/>
+      <c r="C137" s="121"/>
+      <c r="D137" s="121"/>
+      <c r="E137" s="121"/>
+      <c r="F137" s="121"/>
+      <c r="G137" s="121"/>
+      <c r="H137" s="124"/>
+      <c r="I137" s="121"/>
+      <c r="J137" s="121"/>
+      <c r="K137" s="122"/>
     </row>
     <row r="138" spans="2:11">
-      <c r="B138" s="124"/>
-      <c r="C138" s="122"/>
-      <c r="D138" s="122"/>
-      <c r="E138" s="122"/>
-      <c r="F138" s="122"/>
-      <c r="G138" s="122"/>
-      <c r="H138" s="125"/>
-      <c r="I138" s="122"/>
-      <c r="J138" s="122"/>
-      <c r="K138" s="123"/>
+      <c r="B138" s="123"/>
+      <c r="C138" s="121"/>
+      <c r="D138" s="121"/>
+      <c r="E138" s="121"/>
+      <c r="F138" s="121"/>
+      <c r="G138" s="121"/>
+      <c r="H138" s="124"/>
+      <c r="I138" s="121"/>
+      <c r="J138" s="121"/>
+      <c r="K138" s="122"/>
     </row>
     <row r="139" spans="2:11">
-      <c r="B139" s="124"/>
-      <c r="C139" s="122"/>
-      <c r="D139" s="122"/>
-      <c r="E139" s="122"/>
-      <c r="F139" s="122"/>
-      <c r="G139" s="122"/>
-      <c r="H139" s="125"/>
-      <c r="I139" s="122"/>
-      <c r="J139" s="122"/>
-      <c r="K139" s="123"/>
+      <c r="B139" s="123"/>
+      <c r="C139" s="121"/>
+      <c r="D139" s="121"/>
+      <c r="E139" s="121"/>
+      <c r="F139" s="121"/>
+      <c r="G139" s="121"/>
+      <c r="H139" s="124"/>
+      <c r="I139" s="121"/>
+      <c r="J139" s="121"/>
+      <c r="K139" s="122"/>
     </row>
     <row r="140" spans="2:11">
-      <c r="B140" s="124"/>
-      <c r="C140" s="122"/>
-      <c r="D140" s="122"/>
-      <c r="E140" s="122"/>
-      <c r="F140" s="122"/>
-      <c r="G140" s="122"/>
-      <c r="H140" s="125"/>
-      <c r="I140" s="122"/>
-      <c r="J140" s="122"/>
-      <c r="K140" s="123"/>
+      <c r="B140" s="123"/>
+      <c r="C140" s="121"/>
+      <c r="D140" s="121"/>
+      <c r="E140" s="121"/>
+      <c r="F140" s="121"/>
+      <c r="G140" s="121"/>
+      <c r="H140" s="124"/>
+      <c r="I140" s="121"/>
+      <c r="J140" s="121"/>
+      <c r="K140" s="122"/>
     </row>
     <row r="141" spans="2:11">
-      <c r="B141" s="124"/>
-      <c r="C141" s="122"/>
-      <c r="D141" s="122"/>
-      <c r="E141" s="122"/>
-      <c r="F141" s="122"/>
-      <c r="G141" s="122"/>
-      <c r="H141" s="125"/>
-      <c r="I141" s="122"/>
-      <c r="J141" s="122"/>
-      <c r="K141" s="123"/>
+      <c r="B141" s="123"/>
+      <c r="C141" s="121"/>
+      <c r="D141" s="121"/>
+      <c r="E141" s="121"/>
+      <c r="F141" s="121"/>
+      <c r="G141" s="121"/>
+      <c r="H141" s="124"/>
+      <c r="I141" s="121"/>
+      <c r="J141" s="121"/>
+      <c r="K141" s="122"/>
     </row>
     <row r="142" spans="2:11">
-      <c r="B142" s="124"/>
-      <c r="C142" s="122"/>
-      <c r="D142" s="122"/>
-      <c r="E142" s="122"/>
-      <c r="F142" s="122"/>
-      <c r="G142" s="122"/>
-      <c r="H142" s="125"/>
-      <c r="I142" s="122"/>
-      <c r="J142" s="122"/>
-      <c r="K142" s="123"/>
+      <c r="B142" s="123"/>
+      <c r="C142" s="121"/>
+      <c r="D142" s="121"/>
+      <c r="E142" s="121"/>
+      <c r="F142" s="121"/>
+      <c r="G142" s="121"/>
+      <c r="H142" s="124"/>
+      <c r="I142" s="121"/>
+      <c r="J142" s="121"/>
+      <c r="K142" s="122"/>
     </row>
     <row r="143" spans="2:11">
-      <c r="B143" s="124"/>
-      <c r="C143" s="122"/>
-      <c r="D143" s="122"/>
-      <c r="E143" s="122"/>
-      <c r="F143" s="122"/>
-      <c r="G143" s="122"/>
-      <c r="H143" s="125"/>
-      <c r="I143" s="122"/>
-      <c r="J143" s="122"/>
-      <c r="K143" s="123"/>
+      <c r="B143" s="123"/>
+      <c r="C143" s="121"/>
+      <c r="D143" s="121"/>
+      <c r="E143" s="121"/>
+      <c r="F143" s="121"/>
+      <c r="G143" s="121"/>
+      <c r="H143" s="124"/>
+      <c r="I143" s="121"/>
+      <c r="J143" s="121"/>
+      <c r="K143" s="122"/>
     </row>
     <row r="144" spans="2:11">
-      <c r="B144" s="124"/>
-      <c r="C144" s="122"/>
-      <c r="D144" s="122"/>
-      <c r="E144" s="122"/>
-      <c r="F144" s="122"/>
-      <c r="G144" s="122"/>
-      <c r="H144" s="125"/>
-      <c r="I144" s="122"/>
-      <c r="J144" s="122"/>
-      <c r="K144" s="123"/>
+      <c r="B144" s="123"/>
+      <c r="C144" s="121"/>
+      <c r="D144" s="121"/>
+      <c r="E144" s="121"/>
+      <c r="F144" s="121"/>
+      <c r="G144" s="121"/>
+      <c r="H144" s="124"/>
+      <c r="I144" s="121"/>
+      <c r="J144" s="121"/>
+      <c r="K144" s="122"/>
     </row>
     <row r="145" spans="2:11">
-      <c r="B145" s="124"/>
-      <c r="C145" s="122"/>
-      <c r="D145" s="122"/>
-      <c r="E145" s="122"/>
-      <c r="F145" s="122"/>
-      <c r="G145" s="122"/>
-      <c r="H145" s="125"/>
-      <c r="I145" s="122"/>
-      <c r="J145" s="122"/>
-      <c r="K145" s="123"/>
+      <c r="B145" s="123"/>
+      <c r="C145" s="121"/>
+      <c r="D145" s="121"/>
+      <c r="E145" s="121"/>
+      <c r="F145" s="121"/>
+      <c r="G145" s="121"/>
+      <c r="H145" s="124"/>
+      <c r="I145" s="121"/>
+      <c r="J145" s="121"/>
+      <c r="K145" s="122"/>
     </row>
     <row r="146" spans="2:11">
-      <c r="B146" s="124"/>
-      <c r="C146" s="122"/>
-      <c r="D146" s="122"/>
-      <c r="E146" s="122"/>
-      <c r="F146" s="122"/>
-      <c r="G146" s="122"/>
-      <c r="H146" s="125"/>
-      <c r="I146" s="122"/>
-      <c r="J146" s="122"/>
-      <c r="K146" s="123"/>
+      <c r="B146" s="123"/>
+      <c r="C146" s="121"/>
+      <c r="D146" s="121"/>
+      <c r="E146" s="121"/>
+      <c r="F146" s="121"/>
+      <c r="G146" s="121"/>
+      <c r="H146" s="124"/>
+      <c r="I146" s="121"/>
+      <c r="J146" s="121"/>
+      <c r="K146" s="122"/>
     </row>
     <row r="147" spans="2:11">
-      <c r="B147" s="124"/>
-      <c r="C147" s="122"/>
-      <c r="D147" s="122"/>
-      <c r="E147" s="122"/>
-      <c r="F147" s="122"/>
-      <c r="G147" s="122"/>
-      <c r="H147" s="125"/>
-      <c r="I147" s="122"/>
-      <c r="J147" s="122"/>
-      <c r="K147" s="123"/>
+      <c r="B147" s="123"/>
+      <c r="C147" s="121"/>
+      <c r="D147" s="121"/>
+      <c r="E147" s="121"/>
+      <c r="F147" s="121"/>
+      <c r="G147" s="121"/>
+      <c r="H147" s="124"/>
+      <c r="I147" s="121"/>
+      <c r="J147" s="121"/>
+      <c r="K147" s="122"/>
     </row>
     <row r="148" spans="2:11">
-      <c r="B148" s="124"/>
-      <c r="C148" s="122"/>
-      <c r="D148" s="122"/>
-      <c r="E148" s="122"/>
-      <c r="F148" s="122"/>
-      <c r="G148" s="122"/>
-      <c r="H148" s="125"/>
-      <c r="I148" s="122"/>
-      <c r="J148" s="122"/>
-      <c r="K148" s="123"/>
+      <c r="B148" s="123"/>
+      <c r="C148" s="121"/>
+      <c r="D148" s="121"/>
+      <c r="E148" s="121"/>
+      <c r="F148" s="121"/>
+      <c r="G148" s="121"/>
+      <c r="H148" s="124"/>
+      <c r="I148" s="121"/>
+      <c r="J148" s="121"/>
+      <c r="K148" s="122"/>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="124"/>
-      <c r="C149" s="122"/>
-      <c r="D149" s="122"/>
-      <c r="E149" s="122"/>
-      <c r="F149" s="122"/>
-      <c r="G149" s="122"/>
-      <c r="H149" s="125"/>
-      <c r="I149" s="122"/>
-      <c r="J149" s="122"/>
-      <c r="K149" s="123"/>
+      <c r="B149" s="123"/>
+      <c r="C149" s="121"/>
+      <c r="D149" s="121"/>
+      <c r="E149" s="121"/>
+      <c r="F149" s="121"/>
+      <c r="G149" s="121"/>
+      <c r="H149" s="124"/>
+      <c r="I149" s="121"/>
+      <c r="J149" s="121"/>
+      <c r="K149" s="122"/>
     </row>
     <row r="150" spans="2:11">
-      <c r="B150" s="124"/>
-      <c r="C150" s="122"/>
-      <c r="D150" s="122"/>
-      <c r="E150" s="122"/>
-      <c r="F150" s="122"/>
-      <c r="G150" s="122"/>
-      <c r="H150" s="125"/>
-      <c r="I150" s="122"/>
-      <c r="J150" s="122"/>
-      <c r="K150" s="123"/>
+      <c r="B150" s="123"/>
+      <c r="C150" s="121"/>
+      <c r="D150" s="121"/>
+      <c r="E150" s="121"/>
+      <c r="F150" s="121"/>
+      <c r="G150" s="121"/>
+      <c r="H150" s="124"/>
+      <c r="I150" s="121"/>
+      <c r="J150" s="121"/>
+      <c r="K150" s="122"/>
     </row>
     <row r="151" spans="2:11">
-      <c r="B151" s="124"/>
-      <c r="C151" s="122"/>
-      <c r="D151" s="122"/>
-      <c r="E151" s="122"/>
-      <c r="F151" s="122"/>
-      <c r="G151" s="122"/>
-      <c r="H151" s="125"/>
-      <c r="I151" s="122"/>
-      <c r="J151" s="122"/>
-      <c r="K151" s="123"/>
+      <c r="B151" s="123"/>
+      <c r="C151" s="121"/>
+      <c r="D151" s="121"/>
+      <c r="E151" s="121"/>
+      <c r="F151" s="121"/>
+      <c r="G151" s="121"/>
+      <c r="H151" s="124"/>
+      <c r="I151" s="121"/>
+      <c r="J151" s="121"/>
+      <c r="K151" s="122"/>
     </row>
     <row r="152" spans="2:11">
-      <c r="B152" s="124"/>
-      <c r="C152" s="122"/>
-      <c r="D152" s="122"/>
-      <c r="E152" s="122"/>
-      <c r="F152" s="122"/>
-      <c r="G152" s="122"/>
-      <c r="H152" s="125"/>
-      <c r="I152" s="122"/>
-      <c r="J152" s="122"/>
-      <c r="K152" s="123"/>
+      <c r="B152" s="123"/>
+      <c r="C152" s="121"/>
+      <c r="D152" s="121"/>
+      <c r="E152" s="121"/>
+      <c r="F152" s="121"/>
+      <c r="G152" s="121"/>
+      <c r="H152" s="124"/>
+      <c r="I152" s="121"/>
+      <c r="J152" s="121"/>
+      <c r="K152" s="122"/>
     </row>
     <row r="153" spans="2:11">
-      <c r="B153" s="124"/>
-      <c r="C153" s="122"/>
-      <c r="D153" s="122"/>
-      <c r="E153" s="122"/>
-      <c r="F153" s="122"/>
-      <c r="G153" s="122"/>
-      <c r="H153" s="125"/>
-      <c r="I153" s="122"/>
-      <c r="J153" s="122"/>
-      <c r="K153" s="123"/>
+      <c r="B153" s="123"/>
+      <c r="C153" s="121"/>
+      <c r="D153" s="121"/>
+      <c r="E153" s="121"/>
+      <c r="F153" s="121"/>
+      <c r="G153" s="121"/>
+      <c r="H153" s="124"/>
+      <c r="I153" s="121"/>
+      <c r="J153" s="121"/>
+      <c r="K153" s="122"/>
     </row>
     <row r="154" spans="2:11">
-      <c r="B154" s="124"/>
-      <c r="C154" s="122"/>
-      <c r="D154" s="122"/>
-      <c r="E154" s="122"/>
-      <c r="F154" s="122"/>
-      <c r="G154" s="122"/>
-      <c r="H154" s="125"/>
-      <c r="I154" s="122"/>
-      <c r="J154" s="122"/>
-      <c r="K154" s="123"/>
+      <c r="B154" s="123"/>
+      <c r="C154" s="121"/>
+      <c r="D154" s="121"/>
+      <c r="E154" s="121"/>
+      <c r="F154" s="121"/>
+      <c r="G154" s="121"/>
+      <c r="H154" s="124"/>
+      <c r="I154" s="121"/>
+      <c r="J154" s="121"/>
+      <c r="K154" s="122"/>
     </row>
     <row r="155" spans="2:11">
-      <c r="B155" s="124"/>
-      <c r="C155" s="122"/>
-      <c r="D155" s="122"/>
-      <c r="E155" s="122"/>
-      <c r="F155" s="122"/>
-      <c r="G155" s="122"/>
-      <c r="H155" s="125"/>
-      <c r="I155" s="122"/>
-      <c r="J155" s="122"/>
-      <c r="K155" s="123"/>
+      <c r="B155" s="123"/>
+      <c r="C155" s="121"/>
+      <c r="D155" s="121"/>
+      <c r="E155" s="121"/>
+      <c r="F155" s="121"/>
+      <c r="G155" s="121"/>
+      <c r="H155" s="124"/>
+      <c r="I155" s="121"/>
+      <c r="J155" s="121"/>
+      <c r="K155" s="122"/>
     </row>
     <row r="156" spans="2:11">
-      <c r="B156" s="124"/>
-      <c r="C156" s="122"/>
-      <c r="D156" s="122"/>
-      <c r="E156" s="122"/>
-      <c r="F156" s="122"/>
-      <c r="G156" s="122"/>
-      <c r="H156" s="125"/>
-      <c r="I156" s="122"/>
-      <c r="J156" s="122"/>
-      <c r="K156" s="123"/>
+      <c r="B156" s="123"/>
+      <c r="C156" s="121"/>
+      <c r="D156" s="121"/>
+      <c r="E156" s="121"/>
+      <c r="F156" s="121"/>
+      <c r="G156" s="121"/>
+      <c r="H156" s="124"/>
+      <c r="I156" s="121"/>
+      <c r="J156" s="121"/>
+      <c r="K156" s="122"/>
     </row>
     <row r="157" spans="2:11">
-      <c r="B157" s="124"/>
-      <c r="C157" s="122"/>
-      <c r="D157" s="122"/>
-      <c r="E157" s="122"/>
-      <c r="F157" s="122"/>
-      <c r="G157" s="122"/>
-      <c r="H157" s="125"/>
-      <c r="I157" s="122"/>
-      <c r="J157" s="122"/>
-      <c r="K157" s="123"/>
+      <c r="B157" s="123"/>
+      <c r="C157" s="121"/>
+      <c r="D157" s="121"/>
+      <c r="E157" s="121"/>
+      <c r="F157" s="121"/>
+      <c r="G157" s="121"/>
+      <c r="H157" s="124"/>
+      <c r="I157" s="121"/>
+      <c r="J157" s="121"/>
+      <c r="K157" s="122"/>
     </row>
     <row r="158" spans="2:11">
-      <c r="B158" s="124"/>
-      <c r="C158" s="122"/>
-      <c r="D158" s="122"/>
-      <c r="E158" s="122"/>
-      <c r="F158" s="122"/>
-      <c r="G158" s="122"/>
-      <c r="H158" s="125"/>
-      <c r="I158" s="122"/>
-      <c r="J158" s="122"/>
-      <c r="K158" s="123"/>
+      <c r="B158" s="123"/>
+      <c r="C158" s="121"/>
+      <c r="D158" s="121"/>
+      <c r="E158" s="121"/>
+      <c r="F158" s="121"/>
+      <c r="G158" s="121"/>
+      <c r="H158" s="124"/>
+      <c r="I158" s="121"/>
+      <c r="J158" s="121"/>
+      <c r="K158" s="122"/>
     </row>
     <row r="159" spans="2:11">
-      <c r="B159" s="124"/>
-      <c r="C159" s="122"/>
-      <c r="D159" s="122"/>
-      <c r="E159" s="122"/>
-      <c r="F159" s="122"/>
-      <c r="G159" s="122"/>
-      <c r="H159" s="125"/>
-      <c r="I159" s="122"/>
-      <c r="J159" s="122"/>
-      <c r="K159" s="123"/>
+      <c r="B159" s="123"/>
+      <c r="C159" s="121"/>
+      <c r="D159" s="121"/>
+      <c r="E159" s="121"/>
+      <c r="F159" s="121"/>
+      <c r="G159" s="121"/>
+      <c r="H159" s="124"/>
+      <c r="I159" s="121"/>
+      <c r="J159" s="121"/>
+      <c r="K159" s="122"/>
     </row>
     <row r="160" spans="2:11">
-      <c r="B160" s="124"/>
-      <c r="C160" s="122"/>
-      <c r="D160" s="122"/>
-      <c r="E160" s="122"/>
-      <c r="F160" s="122"/>
-      <c r="G160" s="122"/>
-      <c r="H160" s="125"/>
-      <c r="I160" s="122"/>
-      <c r="J160" s="122"/>
-      <c r="K160" s="123"/>
+      <c r="B160" s="123"/>
+      <c r="C160" s="121"/>
+      <c r="D160" s="121"/>
+      <c r="E160" s="121"/>
+      <c r="F160" s="121"/>
+      <c r="G160" s="121"/>
+      <c r="H160" s="124"/>
+      <c r="I160" s="121"/>
+      <c r="J160" s="121"/>
+      <c r="K160" s="122"/>
     </row>
     <row r="161" spans="2:11">
-      <c r="B161" s="124"/>
-      <c r="C161" s="122"/>
-      <c r="D161" s="122"/>
-      <c r="E161" s="122"/>
-      <c r="F161" s="122"/>
-      <c r="G161" s="122"/>
-      <c r="H161" s="125"/>
-      <c r="I161" s="122"/>
-      <c r="J161" s="122"/>
-      <c r="K161" s="123"/>
+      <c r="B161" s="123"/>
+      <c r="C161" s="121"/>
+      <c r="D161" s="121"/>
+      <c r="E161" s="121"/>
+      <c r="F161" s="121"/>
+      <c r="G161" s="121"/>
+      <c r="H161" s="124"/>
+      <c r="I161" s="121"/>
+      <c r="J161" s="121"/>
+      <c r="K161" s="122"/>
     </row>
     <row r="162" spans="2:11">
-      <c r="B162" s="124"/>
-      <c r="C162" s="122"/>
-      <c r="D162" s="122"/>
-      <c r="E162" s="122"/>
-      <c r="F162" s="122"/>
-      <c r="G162" s="122"/>
-      <c r="H162" s="125"/>
-      <c r="I162" s="122"/>
-      <c r="J162" s="122"/>
-      <c r="K162" s="123"/>
+      <c r="B162" s="123"/>
+      <c r="C162" s="121"/>
+      <c r="D162" s="121"/>
+      <c r="E162" s="121"/>
+      <c r="F162" s="121"/>
+      <c r="G162" s="121"/>
+      <c r="H162" s="124"/>
+      <c r="I162" s="121"/>
+      <c r="J162" s="121"/>
+      <c r="K162" s="122"/>
     </row>
     <row r="163" spans="2:11">
-      <c r="B163" s="124"/>
-      <c r="C163" s="122"/>
-      <c r="D163" s="122"/>
-      <c r="E163" s="122"/>
-      <c r="F163" s="122"/>
-      <c r="G163" s="122"/>
-      <c r="H163" s="125"/>
-      <c r="I163" s="122"/>
-      <c r="J163" s="122"/>
-      <c r="K163" s="123"/>
+      <c r="B163" s="123"/>
+      <c r="C163" s="121"/>
+      <c r="D163" s="121"/>
+      <c r="E163" s="121"/>
+      <c r="F163" s="121"/>
+      <c r="G163" s="121"/>
+      <c r="H163" s="124"/>
+      <c r="I163" s="121"/>
+      <c r="J163" s="121"/>
+      <c r="K163" s="122"/>
     </row>
     <row r="164" spans="2:11">
-      <c r="B164" s="124"/>
-      <c r="C164" s="122"/>
-      <c r="D164" s="122"/>
-      <c r="E164" s="122"/>
-      <c r="F164" s="122"/>
-      <c r="G164" s="122"/>
-      <c r="H164" s="125"/>
-      <c r="I164" s="122"/>
-      <c r="J164" s="122"/>
-      <c r="K164" s="123"/>
+      <c r="B164" s="123"/>
+      <c r="C164" s="121"/>
+      <c r="D164" s="121"/>
+      <c r="E164" s="121"/>
+      <c r="F164" s="121"/>
+      <c r="G164" s="121"/>
+      <c r="H164" s="124"/>
+      <c r="I164" s="121"/>
+      <c r="J164" s="121"/>
+      <c r="K164" s="122"/>
     </row>
     <row r="165" spans="2:11">
-      <c r="B165" s="124"/>
-      <c r="C165" s="122"/>
-      <c r="D165" s="122"/>
-      <c r="E165" s="122"/>
-      <c r="F165" s="122"/>
-      <c r="G165" s="122"/>
-      <c r="H165" s="125"/>
-      <c r="I165" s="122"/>
-      <c r="J165" s="122"/>
-      <c r="K165" s="123"/>
+      <c r="B165" s="123"/>
+      <c r="C165" s="121"/>
+      <c r="D165" s="121"/>
+      <c r="E165" s="121"/>
+      <c r="F165" s="121"/>
+      <c r="G165" s="121"/>
+      <c r="H165" s="124"/>
+      <c r="I165" s="121"/>
+      <c r="J165" s="121"/>
+      <c r="K165" s="122"/>
     </row>
     <row r="166" spans="2:11">
-      <c r="B166" s="124"/>
-      <c r="C166" s="122"/>
-      <c r="D166" s="122"/>
-      <c r="E166" s="122"/>
-      <c r="F166" s="122"/>
-      <c r="G166" s="122"/>
-      <c r="H166" s="125"/>
-      <c r="I166" s="122"/>
-      <c r="J166" s="122"/>
-      <c r="K166" s="123"/>
+      <c r="B166" s="123"/>
+      <c r="C166" s="121"/>
+      <c r="D166" s="121"/>
+      <c r="E166" s="121"/>
+      <c r="F166" s="121"/>
+      <c r="G166" s="121"/>
+      <c r="H166" s="124"/>
+      <c r="I166" s="121"/>
+      <c r="J166" s="121"/>
+      <c r="K166" s="122"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/nodes_source_analyses/energy/energy/energy_flexibility_mv_batteries_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_flexibility_mv_batteries_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03DB05D-94D3-C342-84D0-86B5B9FC01D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFC0960-9F9A-9345-84AD-F5A271DCFE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="1060" windowWidth="28140" windowHeight="16020" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1060" windowWidth="27660" windowHeight="16020" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="106">
   <si>
     <t>Source</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>households_supplied_per_unit</t>
-  </si>
-  <si>
     <t>yes=1, no=0</t>
   </si>
   <si>
@@ -137,25 +134,13 @@
     <t>free_co2_factor</t>
   </si>
   <si>
-    <t>forecasting_error</t>
-  </si>
-  <si>
     <t>land_use_per_unit</t>
   </si>
   <si>
     <t>takes_part_in_ets</t>
   </si>
   <si>
-    <t>part_load_efficiency_penalty</t>
-  </si>
-  <si>
-    <t>part_load_operating_point</t>
-  </si>
-  <si>
     <t>electricity_output_capacity</t>
-  </si>
-  <si>
-    <t>heat_output_capacity</t>
   </si>
   <si>
     <t>initial_investment</t>
@@ -395,6 +380,18 @@
   <si>
     <t>This is considered to be the roundtrip efficiency.</t>
   </si>
+  <si>
+    <t>max_consumption_price</t>
+  </si>
+  <si>
+    <t>marginal_costs</t>
+  </si>
+  <si>
+    <t>euro/MWh</t>
+  </si>
+  <si>
+    <t>Quintel assumption</t>
+  </si>
 </sst>
 </file>
 
@@ -405,12 +402,19 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -913,591 +917,594 @@
   </borders>
   <cellStyleXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="274" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="274" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2345,7 +2352,7 @@
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="19"/>
     </row>
@@ -2357,28 +2364,28 @@
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="139" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2394,7 +2401,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="50"/>
       <c r="D9" s="66"/>
@@ -2408,10 +2415,10 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="51" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D11" s="67"/>
     </row>
@@ -2419,7 +2426,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="51"/>
       <c r="C12" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D12" s="67"/>
     </row>
@@ -2427,7 +2434,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="51"/>
       <c r="C13" s="54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D13" s="67"/>
     </row>
@@ -2435,7 +2442,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="51"/>
       <c r="C14" s="52" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" s="67"/>
     </row>
@@ -2448,10 +2455,10 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="51" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D16" s="67"/>
     </row>
@@ -2459,7 +2466,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="51"/>
       <c r="C17" s="56" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D17" s="67"/>
     </row>
@@ -2467,7 +2474,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="51"/>
       <c r="C18" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18" s="67"/>
     </row>
@@ -2475,7 +2482,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="51"/>
       <c r="C19" s="58" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D19" s="67"/>
     </row>
@@ -2483,7 +2490,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="59"/>
       <c r="C20" s="60" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D20" s="67"/>
     </row>
@@ -2491,7 +2498,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="59"/>
       <c r="C21" s="61" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D21" s="67"/>
     </row>
@@ -2499,14 +2506,14 @@
       <c r="A22" s="1"/>
       <c r="B22" s="59"/>
       <c r="C22" s="62" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D22" s="67"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="59"/>
       <c r="C23" s="63" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D23" s="67"/>
     </row>
@@ -2526,10 +2533,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K39"/>
+  <dimension ref="B1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" customHeight="1"/>
@@ -2554,28 +2561,28 @@
       <c r="G1" s="79"/>
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="152" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="154"/>
+      <c r="B2" s="158" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="160"/>
       <c r="F2" s="79"/>
       <c r="G2" s="79"/>
     </row>
     <row r="3" spans="2:11" ht="16" customHeight="1">
-      <c r="B3" s="155"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
       <c r="F3" s="79"/>
       <c r="G3" s="79"/>
     </row>
     <row r="4" spans="2:11" ht="32" customHeight="1">
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="160"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="166"/>
       <c r="F4" s="79"/>
       <c r="G4" s="79"/>
     </row>
@@ -2596,17 +2603,17 @@
     <row r="7" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1">
       <c r="B7" s="83"/>
       <c r="C7" s="84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="84" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="84"/>
       <c r="G7" s="84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="84"/>
       <c r="I7" s="84" t="s">
@@ -2628,7 +2635,7 @@
     <row r="9" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B9" s="88"/>
       <c r="C9" s="89" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="89"/>
@@ -2641,10 +2648,10 @@
     <row r="10" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B10" s="88"/>
       <c r="C10" s="101" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E10" s="130">
         <f>'Research data'!G6</f>
@@ -2658,10 +2665,10 @@
     <row r="11" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B11" s="88"/>
       <c r="C11" s="101" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" s="130">
         <f>'Research data'!G7</f>
@@ -2675,7 +2682,7 @@
     <row r="12" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="88"/>
       <c r="C12" s="133" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D12" s="105" t="s">
         <v>4</v>
@@ -2685,8 +2692,8 @@
         <v>0.85</v>
       </c>
       <c r="F12" s="103"/>
-      <c r="G12" s="165" t="s">
-        <v>106</v>
+      <c r="G12" s="156" t="s">
+        <v>101</v>
       </c>
       <c r="I12" s="137"/>
       <c r="J12" s="91"/>
@@ -2694,10 +2701,10 @@
     <row r="13" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B13" s="88"/>
       <c r="C13" s="101" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E13" s="130">
         <f>'Research data'!G10</f>
@@ -2710,11 +2717,11 @@
     </row>
     <row r="14" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B14" s="88"/>
-      <c r="C14" s="165" t="s">
-        <v>105</v>
+      <c r="C14" s="156" t="s">
+        <v>100</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E14" s="130">
         <f>'Research data'!G9</f>
@@ -2722,15 +2729,15 @@
       </c>
       <c r="F14" s="103"/>
       <c r="G14" s="104"/>
-      <c r="I14" s="166" t="s">
-        <v>99</v>
+      <c r="I14" s="157" t="s">
+        <v>94</v>
       </c>
       <c r="J14" s="91"/>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B15" s="92"/>
       <c r="C15" s="103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="105" t="s">
         <v>4</v>
@@ -2747,8 +2754,8 @@
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B16" s="92"/>
-      <c r="C16" s="103" t="s">
-        <v>25</v>
+      <c r="C16" s="107" t="s">
+        <v>62</v>
       </c>
       <c r="D16" s="105" t="s">
         <v>4</v>
@@ -2762,64 +2769,52 @@
       <c r="J16" s="93"/>
       <c r="K16" s="79"/>
     </row>
-    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="17" spans="2:10" ht="16" customHeight="1">
       <c r="B17" s="92"/>
-      <c r="C17" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="106">
-        <v>0</v>
-      </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="I17" s="137"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="93"/>
-      <c r="K17" s="79"/>
-    </row>
-    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="18" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B18" s="92"/>
-      <c r="C18" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="106">
-        <v>0</v>
-      </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="I18" s="137"/>
+      <c r="C18" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="93"/>
-      <c r="K18" s="79"/>
-    </row>
-    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="19" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="92"/>
       <c r="C19" s="103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E19" s="106">
-        <v>0</v>
+        <f>'Research data'!G14</f>
+        <v>56000000</v>
       </c>
       <c r="F19" s="103"/>
       <c r="G19" s="103"/>
       <c r="I19" s="137"/>
       <c r="J19" s="93"/>
-      <c r="K19" s="79"/>
-    </row>
-    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="20" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B20" s="92"/>
       <c r="C20" s="103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E20" s="106">
         <v>0</v>
@@ -2828,15 +2823,14 @@
       <c r="G20" s="103"/>
       <c r="I20" s="137"/>
       <c r="J20" s="93"/>
-      <c r="K20" s="79"/>
-    </row>
-    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="21" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B21" s="92"/>
       <c r="C21" s="103" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D21" s="105" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E21" s="106">
         <v>0</v>
@@ -2846,54 +2840,64 @@
       <c r="I21" s="137"/>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="2:11" ht="16" customHeight="1">
+    <row r="22" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B22" s="92"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="C22" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="106">
+        <v>0</v>
+      </c>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="I22" s="137"/>
       <c r="J22" s="93"/>
     </row>
-    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="23" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B23" s="92"/>
-      <c r="C23" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="95"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="I23" s="79"/>
+      <c r="C23" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="108">
+        <f>'Research data'!G15</f>
+        <v>560000</v>
+      </c>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="I23" s="137"/>
       <c r="J23" s="93"/>
     </row>
-    <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="24" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B24" s="92"/>
       <c r="C24" s="103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="106">
-        <f>'Research data'!G14</f>
-        <v>56000000</v>
+        <v>36</v>
+      </c>
+      <c r="E24" s="102">
+        <v>0</v>
       </c>
       <c r="F24" s="103"/>
       <c r="G24" s="103"/>
       <c r="I24" s="137"/>
       <c r="J24" s="93"/>
     </row>
-    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="25" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B25" s="92"/>
       <c r="C25" s="103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="106">
+        <v>36</v>
+      </c>
+      <c r="E25" s="109">
         <v>0</v>
       </c>
       <c r="F25" s="103"/>
@@ -2901,29 +2905,31 @@
       <c r="I25" s="137"/>
       <c r="J25" s="93"/>
     </row>
-    <row r="26" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="26" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B26" s="92"/>
       <c r="C26" s="103" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D26" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="106">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E26" s="102">
+        <v>0.04</v>
       </c>
       <c r="F26" s="103"/>
       <c r="G26" s="103"/>
-      <c r="I26" s="137"/>
+      <c r="I26" s="151" t="s">
+        <v>93</v>
+      </c>
       <c r="J26" s="93"/>
     </row>
-    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="27" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B27" s="92"/>
       <c r="C27" s="103" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E27" s="106">
         <v>0</v>
@@ -2933,80 +2939,72 @@
       <c r="I27" s="137"/>
       <c r="J27" s="93"/>
     </row>
-    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="28" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B28" s="92"/>
       <c r="C28" s="103" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="D28" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="108">
-        <f>'Research data'!G15</f>
-        <v>560000</v>
+        <v>104</v>
+      </c>
+      <c r="E28" s="106">
+        <v>4.2</v>
       </c>
       <c r="F28" s="103"/>
       <c r="G28" s="103"/>
-      <c r="I28" s="137"/>
+      <c r="I28" s="167" t="s">
+        <v>105</v>
+      </c>
       <c r="J28" s="93"/>
     </row>
-    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="29" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B29" s="92"/>
       <c r="C29" s="103" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="D29" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="102">
-        <v>0</v>
+        <v>104</v>
+      </c>
+      <c r="E29" s="106">
+        <f>E28/E12</f>
+        <v>4.9411764705882355</v>
       </c>
       <c r="F29" s="103"/>
       <c r="G29" s="103"/>
-      <c r="I29" s="137"/>
+      <c r="I29" s="167" t="s">
+        <v>105</v>
+      </c>
       <c r="J29" s="93"/>
     </row>
-    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="30" spans="2:10" ht="16" customHeight="1">
       <c r="B30" s="92"/>
-      <c r="C30" s="103" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="109">
-        <v>0</v>
-      </c>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="I30" s="137"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="I30" s="79"/>
       <c r="J30" s="93"/>
     </row>
-    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="31" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B31" s="92"/>
-      <c r="C31" s="103" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="102">
-        <v>0.04</v>
-      </c>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="I31" s="151" t="s">
-        <v>98</v>
-      </c>
+      <c r="C31" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="95"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="I31" s="79"/>
       <c r="J31" s="93"/>
     </row>
-    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="32" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B32" s="92"/>
       <c r="C32" s="103" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D32" s="105" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E32" s="106">
         <v>0</v>
@@ -3016,35 +3014,47 @@
       <c r="I32" s="137"/>
       <c r="J32" s="93"/>
     </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1">
+    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B33" s="92"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="I33" s="79"/>
+      <c r="C33" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="108">
+        <f>'Research data'!G18</f>
+        <v>0.125</v>
+      </c>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="I33" s="137"/>
       <c r="J33" s="93"/>
     </row>
     <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B34" s="92"/>
-      <c r="C34" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="95"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="I34" s="79"/>
+      <c r="C34" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="106">
+        <f>'Research data'!G19</f>
+        <v>10</v>
+      </c>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="I34" s="137"/>
       <c r="J34" s="93"/>
     </row>
     <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B35" s="92"/>
       <c r="C35" s="103" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D35" s="105" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="106">
         <v>0</v>
@@ -3055,65 +3065,15 @@
       <c r="J35" s="93"/>
     </row>
     <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B36" s="92"/>
-      <c r="C36" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="108">
-        <f>'Research data'!G18</f>
-        <v>0.125</v>
-      </c>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="93"/>
-    </row>
-    <row r="37" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B37" s="92"/>
-      <c r="C37" s="103" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="106">
-        <f>'Research data'!G19</f>
-        <v>10</v>
-      </c>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="I37" s="137"/>
-      <c r="J37" s="93"/>
-    </row>
-    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B38" s="92"/>
-      <c r="C38" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="106">
-        <v>0</v>
-      </c>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="93"/>
-    </row>
-    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3168,21 +3128,21 @@
     <row r="3" spans="2:12" s="15" customFormat="1">
       <c r="B3" s="14"/>
       <c r="C3" s="65" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H3" s="65"/>
       <c r="I3" s="65"/>
       <c r="J3" s="35"/>
       <c r="K3" s="65" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L3" s="72"/>
     </row>
@@ -3202,7 +3162,7 @@
     <row r="5" spans="2:12" ht="17" thickBot="1">
       <c r="B5" s="41"/>
       <c r="C5" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -3217,12 +3177,12 @@
     <row r="6" spans="2:12" ht="17" thickBot="1">
       <c r="B6" s="41"/>
       <c r="C6" s="128" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
       <c r="F6" s="129" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G6" s="145">
         <v>129</v>
@@ -3231,19 +3191,19 @@
       <c r="I6" s="45"/>
       <c r="J6" s="43"/>
       <c r="K6" s="141" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L6" s="73"/>
     </row>
     <row r="7" spans="2:12" ht="17" thickBot="1">
       <c r="B7" s="41"/>
       <c r="C7" s="128" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
       <c r="F7" s="129" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G7" s="145">
         <v>0</v>
@@ -3252,14 +3212,14 @@
       <c r="I7" s="45"/>
       <c r="J7" s="43"/>
       <c r="K7" s="141" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L7" s="73"/>
     </row>
     <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="41"/>
       <c r="C8" s="142" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -3271,19 +3231,19 @@
       <c r="I8" s="45"/>
       <c r="J8" s="43"/>
       <c r="K8" s="141" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L8" s="73"/>
     </row>
     <row r="9" spans="2:12" ht="17" thickBot="1">
       <c r="B9" s="41"/>
       <c r="C9" s="128" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
       <c r="F9" s="129" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G9" s="146">
         <f>Notes!E7</f>
@@ -3293,19 +3253,19 @@
       <c r="I9" s="45"/>
       <c r="J9" s="43"/>
       <c r="K9" s="141" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L9" s="73"/>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
       <c r="B10" s="41"/>
       <c r="C10" s="128" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
       <c r="F10" s="129" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G10" s="145">
         <v>100</v>
@@ -3314,28 +3274,28 @@
       <c r="I10" s="45"/>
       <c r="J10" s="43"/>
       <c r="K10" s="141" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L10" s="73"/>
     </row>
     <row r="11" spans="2:12" ht="17" thickBot="1">
       <c r="B11" s="41"/>
       <c r="C11" s="128" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
       <c r="F11" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="164">
+      <c r="G11" s="155">
         <v>0.85</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
       <c r="J11" s="43"/>
       <c r="K11" s="141" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L11" s="73"/>
     </row>
@@ -3355,7 +3315,7 @@
     <row r="13" spans="2:12" ht="17" thickBot="1">
       <c r="B13" s="41"/>
       <c r="C13" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -3370,12 +3330,12 @@
     <row r="14" spans="2:12" ht="17" thickBot="1">
       <c r="B14" s="41"/>
       <c r="C14" s="128" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
       <c r="F14" s="129" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G14" s="149">
         <v>56000000</v>
@@ -3384,19 +3344,19 @@
       <c r="I14" s="45"/>
       <c r="J14" s="43"/>
       <c r="K14" s="141" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L14" s="73"/>
     </row>
     <row r="15" spans="2:12" ht="17" thickBot="1">
       <c r="B15" s="41"/>
       <c r="C15" s="142" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
       <c r="F15" s="143" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G15" s="145">
         <f>G14*0.01</f>
@@ -3406,7 +3366,7 @@
       <c r="I15" s="45"/>
       <c r="J15" s="43"/>
       <c r="K15" s="141" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L15" s="73"/>
     </row>
@@ -3441,7 +3401,7 @@
     <row r="18" spans="2:12" ht="17" thickBot="1">
       <c r="B18" s="41"/>
       <c r="C18" s="128" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>3</v>
@@ -3450,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="143" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G18" s="150">
         <v>0.125</v>
@@ -3459,14 +3419,14 @@
       <c r="I18" s="45"/>
       <c r="J18" s="43"/>
       <c r="K18" s="141" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L18" s="73"/>
     </row>
     <row r="19" spans="2:12" ht="17" thickBot="1">
       <c r="B19" s="41"/>
       <c r="C19" s="142" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D19" s="44" t="s">
         <v>1</v>
@@ -3475,7 +3435,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="143" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G19" s="145">
         <v>10</v>
@@ -3484,7 +3444,7 @@
       <c r="I19" s="45"/>
       <c r="J19" s="43"/>
       <c r="K19" s="141" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L19" s="73"/>
     </row>
@@ -3548,7 +3508,7 @@
     <row r="3" spans="2:11">
       <c r="B3" s="27"/>
       <c r="C3" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -3574,29 +3534,29 @@
     <row r="5" spans="2:11">
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -3608,13 +3568,13 @@
     </row>
     <row r="8" spans="2:11">
       <c r="C8" s="138" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="F8" s="138" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G8" s="140">
         <v>43101</v>
@@ -3625,19 +3585,19 @@
       <c r="I8" s="140">
         <v>43709</v>
       </c>
-      <c r="K8" s="161" t="s">
-        <v>89</v>
+      <c r="K8" s="152" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G9" s="140">
         <v>43556</v>
@@ -3649,18 +3609,18 @@
         <v>43709</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="C10" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G10" s="140">
         <v>43770</v>
@@ -3672,10 +3632,10 @@
         <v>44144</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="K10" s="23" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -3735,20 +3695,20 @@
         <v>0</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E4" s="117" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="117"/>
       <c r="H4" s="118"/>
       <c r="I4" s="117"/>
       <c r="J4" s="117"/>
       <c r="K4" s="119" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -3778,23 +3738,23 @@
     <row r="7" spans="2:11">
       <c r="B7" s="14"/>
       <c r="C7" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="162" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="162">
+        <v>94</v>
+      </c>
+      <c r="D7" s="153" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="153">
         <v>80</v>
       </c>
-      <c r="F7" s="162" t="s">
-        <v>44</v>
+      <c r="F7" s="153" t="s">
+        <v>39</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="120"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="163" t="s">
-        <v>102</v>
+      <c r="K7" s="154" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -3983,8 +3943,8 @@
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
-      <c r="G23" s="162" t="s">
-        <v>103</v>
+      <c r="G23" s="153" t="s">
+        <v>98</v>
       </c>
       <c r="H23" s="120"/>
       <c r="I23" s="12"/>
